--- a/GATEWAY/A1#111GRUPPOGPI00/GPI_SPA/IM-PATIDOK/IT_10.0.1/IM-PATIDOK accreditamento-checklist_V8.1.3.xlsx
+++ b/GATEWAY/A1#111GRUPPOGPI00/GPI_SPA/IM-PATIDOK/IT_10.0.1/IM-PATIDOK accreditamento-checklist_V8.1.3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\u01113\Desktop\GatewayInLocale\A1#111GRUPPOGPI00\GPI_SPA\IM-PATIDOK\IT_10.0.1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3D211FC-0376-4327-941F-9CC8BFD2C78E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{584B5A7D-F141-4409-9417-0909C761F26E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2618,15 +2618,6 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 8" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t>2024-01-25T10:55:08.546Z</t>
-  </si>
-  <si>
-    <t>7d6e119590a17a4f</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.70.4.4.4e456f103ca11eac4e6af38cb9b8278d7124ec93e291116b0d88d4fb615882a2.22b5a2d0bd^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
     <t>VALIDAZIONE_CDA2_RSA_CT9_KO</t>
   </si>
   <si>
@@ -5245,6 +5236,15 @@
   </si>
   <si>
     <t>Il software IM-PATIDOK non gestisce l'informazione richiesta dal caso di test. Per questa ragione il caso di test 22 non può essere eseguito.</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.70.4.4.4e456f103ca11eac4e6af38cb9b8278d7124ec93e291116b0d88d4fb615882a2.1a87dfe4ad^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>63dc60ac71bfb32b</t>
+  </si>
+  <si>
+    <t>2024-01-30T17:22:33.236Z</t>
   </si>
 </sst>
 </file>
@@ -5603,7 +5603,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -5726,9 +5726,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -8186,14 +8183,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:T1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="H78" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="E78" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="K385" sqref="K385"/>
+      <selection pane="bottomRight" activeCell="A9" sqref="A9:XFD9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -8444,7 +8440,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="10" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="20">
         <v>1</v>
       </c>
@@ -8478,7 +8474,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="11" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="20">
         <v>2</v>
       </c>
@@ -8512,7 +8508,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="12" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="20">
         <v>3</v>
       </c>
@@ -8546,7 +8542,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="13" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="20">
         <v>4</v>
       </c>
@@ -8580,7 +8576,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="14" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="20">
         <v>5</v>
       </c>
@@ -8774,7 +8770,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="19" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="20">
         <v>11</v>
       </c>
@@ -8808,7 +8804,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="20" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="20">
         <v>12</v>
       </c>
@@ -8842,7 +8838,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="21" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="20">
         <v>13</v>
       </c>
@@ -8876,7 +8872,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="22" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="20">
         <v>14</v>
       </c>
@@ -8910,7 +8906,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="23" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="20">
         <v>16</v>
       </c>
@@ -8944,7 +8940,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="24" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="20">
         <v>17</v>
       </c>
@@ -8978,7 +8974,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="25" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="20">
         <v>18</v>
       </c>
@@ -9012,7 +9008,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="26" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="20">
         <v>19</v>
       </c>
@@ -9046,7 +9042,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="27" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="20">
         <v>20</v>
       </c>
@@ -9080,7 +9076,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="28" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="20">
         <v>21</v>
       </c>
@@ -9114,7 +9110,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="29" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="20">
         <v>22</v>
       </c>
@@ -9148,7 +9144,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="30" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="20">
         <v>23</v>
       </c>
@@ -9342,7 +9338,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="35" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="20">
         <v>28</v>
       </c>
@@ -9432,7 +9428,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="37" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="20">
         <v>30</v>
       </c>
@@ -9466,7 +9462,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="38" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="20">
         <v>31</v>
       </c>
@@ -9556,7 +9552,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="40" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="20">
         <v>33</v>
       </c>
@@ -9590,7 +9586,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="41" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="20">
         <v>34</v>
       </c>
@@ -9680,7 +9676,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="43" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="20">
         <v>36</v>
       </c>
@@ -9770,7 +9766,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="45" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A45" s="20">
         <v>38</v>
       </c>
@@ -9804,7 +9800,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="46" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="20">
         <v>39</v>
       </c>
@@ -9894,7 +9890,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="48" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A48" s="20">
         <v>41</v>
       </c>
@@ -9928,7 +9924,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="49" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A49" s="20">
         <v>42</v>
       </c>
@@ -10018,7 +10014,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="51" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A51" s="20">
         <v>44</v>
       </c>
@@ -10092,7 +10088,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="53" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A53" s="20">
         <v>46</v>
       </c>
@@ -10128,7 +10124,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="54" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A54" s="20">
         <v>47</v>
       </c>
@@ -10202,7 +10198,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="56" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A56" s="20">
         <v>49</v>
       </c>
@@ -10238,7 +10234,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="57" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A57" s="20">
         <v>50</v>
       </c>
@@ -10312,7 +10308,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="59" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A59" s="20">
         <v>52</v>
       </c>
@@ -10346,7 +10342,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="60" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A60" s="20">
         <v>53</v>
       </c>
@@ -10380,7 +10376,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="61" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A61" s="20">
         <v>54</v>
       </c>
@@ -10414,7 +10410,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="62" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A62" s="20">
         <v>55</v>
       </c>
@@ -10448,7 +10444,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="63" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A63" s="20">
         <v>56</v>
       </c>
@@ -10482,7 +10478,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="64" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A64" s="20">
         <v>57</v>
       </c>
@@ -10516,7 +10512,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="65" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A65" s="20">
         <v>58</v>
       </c>
@@ -10550,7 +10546,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="66" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A66" s="20">
         <v>59</v>
       </c>
@@ -10584,7 +10580,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="67" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A67" s="20">
         <v>60</v>
       </c>
@@ -10618,7 +10614,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="68" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A68" s="20">
         <v>61</v>
       </c>
@@ -10652,7 +10648,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="69" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A69" s="20">
         <v>62</v>
       </c>
@@ -11286,7 +11282,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="82" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A82" s="20">
         <v>75</v>
       </c>
@@ -11320,7 +11316,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="83" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A83" s="20">
         <v>76</v>
       </c>
@@ -11354,7 +11350,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="84" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A84" s="20">
         <v>77</v>
       </c>
@@ -11388,7 +11384,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="85" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A85" s="20">
         <v>78</v>
       </c>
@@ -11422,7 +11418,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="86" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A86" s="20">
         <v>79</v>
       </c>
@@ -11456,7 +11452,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="87" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A87" s="20">
         <v>80</v>
       </c>
@@ -11490,7 +11486,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="88" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A88" s="20">
         <v>81</v>
       </c>
@@ -11524,7 +11520,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="89" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A89" s="20">
         <v>82</v>
       </c>
@@ -11558,7 +11554,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="90" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A90" s="20">
         <v>83</v>
       </c>
@@ -11592,7 +11588,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="91" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A91" s="20">
         <v>84</v>
       </c>
@@ -11626,7 +11622,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="92" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A92" s="20">
         <v>85</v>
       </c>
@@ -11660,7 +11656,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="93" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A93" s="20">
         <v>86</v>
       </c>
@@ -11694,7 +11690,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="94" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A94" s="20">
         <v>87</v>
       </c>
@@ -11728,7 +11724,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="95" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A95" s="20">
         <v>88</v>
       </c>
@@ -11762,7 +11758,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="96" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A96" s="20">
         <v>89</v>
       </c>
@@ -11796,7 +11792,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="97" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A97" s="20">
         <v>90</v>
       </c>
@@ -11830,7 +11826,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="98" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A98" s="20">
         <v>91</v>
       </c>
@@ -11864,7 +11860,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="99" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A99" s="20">
         <v>92</v>
       </c>
@@ -11898,7 +11894,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="100" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A100" s="20">
         <v>93</v>
       </c>
@@ -11932,7 +11928,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="101" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A101" s="20">
         <v>94</v>
       </c>
@@ -11966,7 +11962,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="102" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A102" s="20">
         <v>95</v>
       </c>
@@ -12000,7 +11996,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="103" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A103" s="20">
         <v>96</v>
       </c>
@@ -12034,7 +12030,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="104" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A104" s="20">
         <v>97</v>
       </c>
@@ -12068,7 +12064,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="105" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A105" s="20">
         <v>98</v>
       </c>
@@ -12102,7 +12098,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="106" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A106" s="20">
         <v>99</v>
       </c>
@@ -12136,7 +12132,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="107" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A107" s="20">
         <v>100</v>
       </c>
@@ -12170,7 +12166,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="108" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A108" s="20">
         <v>101</v>
       </c>
@@ -12204,7 +12200,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="109" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A109" s="20">
         <v>102</v>
       </c>
@@ -12238,7 +12234,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="110" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A110" s="20">
         <v>103</v>
       </c>
@@ -12272,7 +12268,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="111" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A111" s="20">
         <v>104</v>
       </c>
@@ -12306,7 +12302,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="112" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A112" s="20">
         <v>105</v>
       </c>
@@ -12340,7 +12336,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="113" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A113" s="20">
         <v>106</v>
       </c>
@@ -12374,7 +12370,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="114" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A114" s="20">
         <v>107</v>
       </c>
@@ -12408,7 +12404,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="115" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A115" s="20">
         <v>108</v>
       </c>
@@ -12442,7 +12438,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="116" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A116" s="20">
         <v>109</v>
       </c>
@@ -12476,7 +12472,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="117" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A117" s="20">
         <v>110</v>
       </c>
@@ -12510,7 +12506,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="118" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A118" s="20">
         <v>111</v>
       </c>
@@ -12544,7 +12540,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="119" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A119" s="20">
         <v>112</v>
       </c>
@@ -12578,7 +12574,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="120" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A120" s="20">
         <v>113</v>
       </c>
@@ -12612,7 +12608,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="121" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A121" s="20">
         <v>114</v>
       </c>
@@ -12646,7 +12642,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="122" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A122" s="20">
         <v>115</v>
       </c>
@@ -12680,7 +12676,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="123" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A123" s="20">
         <v>116</v>
       </c>
@@ -12714,7 +12710,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="124" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A124" s="20">
         <v>117</v>
       </c>
@@ -12748,7 +12744,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="125" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A125" s="20">
         <v>118</v>
       </c>
@@ -12782,7 +12778,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="126" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A126" s="20">
         <v>119</v>
       </c>
@@ -12816,7 +12812,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="127" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A127" s="20">
         <v>120</v>
       </c>
@@ -12850,7 +12846,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="128" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A128" s="20">
         <v>121</v>
       </c>
@@ -14455,16 +14451,16 @@
         <v>505</v>
       </c>
       <c r="F161" s="23">
-        <v>45316</v>
+        <v>45321</v>
       </c>
       <c r="G161" s="29" t="s">
-        <v>506</v>
+        <v>1039</v>
       </c>
       <c r="H161" s="29" t="s">
-        <v>507</v>
+        <v>1038</v>
       </c>
       <c r="I161" s="29" t="s">
-        <v>508</v>
+        <v>1037</v>
       </c>
       <c r="J161" s="25" t="s">
         <v>66</v>
@@ -14505,22 +14501,22 @@
         <v>135</v>
       </c>
       <c r="D162" s="21" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="E162" s="22" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="F162" s="23">
         <v>45316</v>
       </c>
       <c r="G162" s="29" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="H162" s="29" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="I162" s="29" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="J162" s="25" t="s">
         <v>66</v>
@@ -14561,22 +14557,22 @@
         <v>135</v>
       </c>
       <c r="D163" s="21" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="E163" s="22" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="F163" s="23">
         <v>45316</v>
       </c>
       <c r="G163" s="29" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="H163" s="29" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="I163" s="29" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="J163" s="25" t="s">
         <v>66</v>
@@ -14617,10 +14613,10 @@
         <v>135</v>
       </c>
       <c r="D164" s="21" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="E164" s="22" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="F164" s="23"/>
       <c r="G164" s="24"/>
@@ -14630,7 +14626,7 @@
         <v>70</v>
       </c>
       <c r="K164" s="25" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="L164" s="25"/>
       <c r="M164" s="25"/>
@@ -14655,10 +14651,10 @@
         <v>135</v>
       </c>
       <c r="D165" s="21" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="E165" s="22" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="F165" s="23"/>
       <c r="G165" s="24"/>
@@ -14667,8 +14663,8 @@
       <c r="J165" s="25" t="s">
         <v>70</v>
       </c>
-      <c r="K165" s="49" t="s">
-        <v>1036</v>
+      <c r="K165" s="25" t="s">
+        <v>1033</v>
       </c>
       <c r="L165" s="25"/>
       <c r="M165" s="25"/>
@@ -14693,10 +14689,10 @@
         <v>135</v>
       </c>
       <c r="D166" s="21" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="E166" s="22" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="F166" s="23"/>
       <c r="G166" s="24"/>
@@ -14705,8 +14701,8 @@
       <c r="J166" s="25" t="s">
         <v>70</v>
       </c>
-      <c r="K166" s="49" t="s">
-        <v>1037</v>
+      <c r="K166" s="25" t="s">
+        <v>1034</v>
       </c>
       <c r="L166" s="25"/>
       <c r="M166" s="25"/>
@@ -14731,22 +14727,22 @@
         <v>135</v>
       </c>
       <c r="D167" s="21" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="E167" s="22" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="F167" s="23">
         <v>45316</v>
       </c>
       <c r="G167" s="29" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="H167" s="29" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="I167" s="29" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="J167" s="25" t="s">
         <v>66</v>
@@ -14770,7 +14766,7 @@
       </c>
       <c r="R167" s="26"/>
       <c r="S167" s="27" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="T167" s="28" t="s">
         <v>122</v>
@@ -14787,22 +14783,22 @@
         <v>135</v>
       </c>
       <c r="D168" s="21" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="E168" s="22" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="F168" s="23">
         <v>45316</v>
       </c>
       <c r="G168" s="29" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="H168" s="29" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="I168" s="29" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="J168" s="25" t="s">
         <v>66</v>
@@ -14826,7 +14822,7 @@
       </c>
       <c r="R168" s="26"/>
       <c r="S168" s="27" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="T168" s="28" t="s">
         <v>122</v>
@@ -14843,10 +14839,10 @@
         <v>135</v>
       </c>
       <c r="D169" s="21" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="E169" s="22" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="F169" s="23"/>
       <c r="G169" s="24"/>
@@ -14855,8 +14851,8 @@
       <c r="J169" s="25" t="s">
         <v>70</v>
       </c>
-      <c r="K169" s="49" t="s">
-        <v>1038</v>
+      <c r="K169" s="25" t="s">
+        <v>1035</v>
       </c>
       <c r="L169" s="25"/>
       <c r="M169" s="25"/>
@@ -14881,10 +14877,10 @@
         <v>135</v>
       </c>
       <c r="D170" s="21" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="E170" s="22" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="F170" s="23"/>
       <c r="G170" s="24"/>
@@ -14894,7 +14890,7 @@
         <v>70</v>
       </c>
       <c r="K170" s="25" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="L170" s="25"/>
       <c r="M170" s="25"/>
@@ -14919,10 +14915,10 @@
         <v>135</v>
       </c>
       <c r="D171" s="21" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="E171" s="22" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="F171" s="23"/>
       <c r="G171" s="24"/>
@@ -14932,7 +14928,7 @@
         <v>70</v>
       </c>
       <c r="K171" s="25" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="L171" s="25"/>
       <c r="M171" s="25"/>
@@ -14957,10 +14953,10 @@
         <v>135</v>
       </c>
       <c r="D172" s="21" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="E172" s="22" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="F172" s="23"/>
       <c r="G172" s="24"/>
@@ -14970,7 +14966,7 @@
         <v>70</v>
       </c>
       <c r="K172" s="25" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="L172" s="25"/>
       <c r="M172" s="25"/>
@@ -14995,10 +14991,10 @@
         <v>135</v>
       </c>
       <c r="D173" s="21" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="E173" s="22" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="F173" s="23"/>
       <c r="G173" s="24"/>
@@ -15008,7 +15004,7 @@
         <v>70</v>
       </c>
       <c r="K173" s="31" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="L173" s="25"/>
       <c r="M173" s="25"/>
@@ -15033,10 +15029,10 @@
         <v>135</v>
       </c>
       <c r="D174" s="21" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="E174" s="22" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="F174" s="23"/>
       <c r="G174" s="24"/>
@@ -15046,7 +15042,7 @@
         <v>70</v>
       </c>
       <c r="K174" s="32" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="L174" s="25"/>
       <c r="M174" s="25"/>
@@ -15071,10 +15067,10 @@
         <v>135</v>
       </c>
       <c r="D175" s="21" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="E175" s="22" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="F175" s="23"/>
       <c r="G175" s="24"/>
@@ -15083,8 +15079,8 @@
       <c r="J175" s="25" t="s">
         <v>70</v>
       </c>
-      <c r="K175" s="49" t="s">
-        <v>1039</v>
+      <c r="K175" s="25" t="s">
+        <v>1036</v>
       </c>
       <c r="L175" s="25"/>
       <c r="M175" s="25"/>
@@ -15109,22 +15105,22 @@
         <v>135</v>
       </c>
       <c r="D176" s="21" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="E176" s="22" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="F176" s="23">
         <v>45316</v>
       </c>
       <c r="G176" s="29" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="H176" s="29" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="I176" s="29" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="J176" s="25" t="s">
         <v>66</v>
@@ -15148,13 +15144,13 @@
       </c>
       <c r="R176" s="26"/>
       <c r="S176" s="27" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="T176" s="28" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="177" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A177" s="20">
         <v>170</v>
       </c>
@@ -15165,10 +15161,10 @@
         <v>130</v>
       </c>
       <c r="D177" s="21" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="E177" s="22" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="F177" s="23"/>
       <c r="G177" s="24"/>
@@ -15188,7 +15184,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="178" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A178" s="20">
         <v>171</v>
       </c>
@@ -15199,10 +15195,10 @@
         <v>130</v>
       </c>
       <c r="D178" s="21" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="E178" s="22" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="F178" s="23"/>
       <c r="G178" s="24"/>
@@ -15222,7 +15218,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="179" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A179" s="20">
         <v>172</v>
       </c>
@@ -15233,10 +15229,10 @@
         <v>130</v>
       </c>
       <c r="D179" s="21" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="E179" s="22" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="F179" s="23"/>
       <c r="G179" s="24"/>
@@ -15256,7 +15252,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="180" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A180" s="20">
         <v>173</v>
       </c>
@@ -15267,10 +15263,10 @@
         <v>130</v>
       </c>
       <c r="D180" s="21" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="E180" s="22" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="F180" s="23"/>
       <c r="G180" s="24"/>
@@ -15290,7 +15286,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="181" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A181" s="20">
         <v>174</v>
       </c>
@@ -15301,10 +15297,10 @@
         <v>130</v>
       </c>
       <c r="D181" s="21" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="E181" s="22" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="F181" s="23"/>
       <c r="G181" s="24"/>
@@ -15324,7 +15320,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="182" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A182" s="20">
         <v>175</v>
       </c>
@@ -15335,10 +15331,10 @@
         <v>130</v>
       </c>
       <c r="D182" s="21" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="E182" s="22" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="F182" s="23"/>
       <c r="G182" s="24"/>
@@ -15358,7 +15354,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="183" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A183" s="20">
         <v>176</v>
       </c>
@@ -15369,10 +15365,10 @@
         <v>130</v>
       </c>
       <c r="D183" s="21" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="E183" s="22" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="F183" s="23"/>
       <c r="G183" s="24"/>
@@ -15392,7 +15388,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="184" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A184" s="20">
         <v>177</v>
       </c>
@@ -15403,10 +15399,10 @@
         <v>130</v>
       </c>
       <c r="D184" s="21" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="E184" s="22" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="F184" s="23"/>
       <c r="G184" s="24"/>
@@ -15426,7 +15422,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="185" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A185" s="20">
         <v>178</v>
       </c>
@@ -15437,10 +15433,10 @@
         <v>130</v>
       </c>
       <c r="D185" s="21" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="E185" s="22" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="F185" s="23"/>
       <c r="G185" s="24"/>
@@ -15460,7 +15456,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="186" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A186" s="20">
         <v>179</v>
       </c>
@@ -15471,10 +15467,10 @@
         <v>130</v>
       </c>
       <c r="D186" s="21" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="E186" s="22" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="F186" s="23"/>
       <c r="G186" s="24"/>
@@ -15494,7 +15490,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="187" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A187" s="20">
         <v>180</v>
       </c>
@@ -15505,10 +15501,10 @@
         <v>130</v>
       </c>
       <c r="D187" s="21" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="E187" s="22" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="F187" s="23"/>
       <c r="G187" s="24"/>
@@ -15528,7 +15524,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="188" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A188" s="20">
         <v>181</v>
       </c>
@@ -15539,10 +15535,10 @@
         <v>130</v>
       </c>
       <c r="D188" s="21" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="E188" s="22" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="F188" s="23"/>
       <c r="G188" s="24"/>
@@ -15562,7 +15558,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="189" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A189" s="20">
         <v>182</v>
       </c>
@@ -15573,10 +15569,10 @@
         <v>130</v>
       </c>
       <c r="D189" s="21" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="E189" s="22" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="F189" s="23"/>
       <c r="G189" s="24"/>
@@ -15596,7 +15592,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="190" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A190" s="20">
         <v>183</v>
       </c>
@@ -15607,10 +15603,10 @@
         <v>130</v>
       </c>
       <c r="D190" s="21" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="E190" s="22" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="F190" s="23"/>
       <c r="G190" s="24"/>
@@ -15630,7 +15626,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="191" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A191" s="20">
         <v>184</v>
       </c>
@@ -15641,10 +15637,10 @@
         <v>130</v>
       </c>
       <c r="D191" s="21" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="E191" s="22" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="F191" s="23"/>
       <c r="G191" s="24"/>
@@ -15664,7 +15660,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="192" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A192" s="20">
         <v>185</v>
       </c>
@@ -15675,10 +15671,10 @@
         <v>130</v>
       </c>
       <c r="D192" s="21" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="E192" s="22" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="F192" s="23"/>
       <c r="G192" s="24"/>
@@ -15698,7 +15694,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="193" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A193" s="20">
         <v>186</v>
       </c>
@@ -15709,10 +15705,10 @@
         <v>130</v>
       </c>
       <c r="D193" s="21" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="E193" s="22" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="F193" s="23"/>
       <c r="G193" s="24"/>
@@ -15732,7 +15728,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="194" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A194" s="20">
         <v>187</v>
       </c>
@@ -15743,10 +15739,10 @@
         <v>130</v>
       </c>
       <c r="D194" s="21" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="E194" s="22" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="F194" s="23"/>
       <c r="G194" s="24"/>
@@ -15766,7 +15762,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="195" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A195" s="20">
         <v>188</v>
       </c>
@@ -15777,10 +15773,10 @@
         <v>130</v>
       </c>
       <c r="D195" s="21" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="E195" s="22" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="F195" s="23"/>
       <c r="G195" s="24"/>
@@ -15800,7 +15796,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="196" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A196" s="20">
         <v>189</v>
       </c>
@@ -15811,10 +15807,10 @@
         <v>130</v>
       </c>
       <c r="D196" s="21" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="E196" s="22" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="F196" s="23"/>
       <c r="G196" s="24"/>
@@ -15834,7 +15830,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="197" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A197" s="20">
         <v>190</v>
       </c>
@@ -15845,10 +15841,10 @@
         <v>130</v>
       </c>
       <c r="D197" s="21" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="E197" s="22" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="F197" s="23"/>
       <c r="G197" s="24"/>
@@ -15868,7 +15864,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="198" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A198" s="20">
         <v>191</v>
       </c>
@@ -15879,10 +15875,10 @@
         <v>48</v>
       </c>
       <c r="D198" s="21" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="E198" s="22" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="F198" s="23"/>
       <c r="G198" s="24"/>
@@ -15902,21 +15898,21 @@
         <v>51</v>
       </c>
     </row>
-    <row r="199" spans="1:20" ht="241.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:20" ht="241.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A199" s="20">
         <v>192</v>
       </c>
       <c r="B199" s="21" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="C199" s="21" t="s">
         <v>48</v>
       </c>
       <c r="D199" s="21" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="E199" s="22" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="F199" s="23"/>
       <c r="G199" s="24"/>
@@ -15936,21 +15932,21 @@
         <v>51</v>
       </c>
     </row>
-    <row r="200" spans="1:20" ht="301.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:20" ht="301.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A200" s="20">
         <v>193</v>
       </c>
       <c r="B200" s="21" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="C200" s="21" t="s">
         <v>48</v>
       </c>
       <c r="D200" s="21" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="E200" s="22" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="F200" s="23"/>
       <c r="G200" s="24"/>
@@ -15970,21 +15966,21 @@
         <v>51</v>
       </c>
     </row>
-    <row r="201" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A201" s="20">
         <v>194</v>
       </c>
       <c r="B201" s="21" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="C201" s="21" t="s">
         <v>48</v>
       </c>
       <c r="D201" s="21" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="E201" s="22" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="F201" s="23"/>
       <c r="G201" s="24"/>
@@ -16004,21 +16000,21 @@
         <v>51</v>
       </c>
     </row>
-    <row r="202" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A202" s="20">
         <v>195</v>
       </c>
       <c r="B202" s="21" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="C202" s="21" t="s">
         <v>48</v>
       </c>
       <c r="D202" s="21" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="E202" s="22" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="F202" s="23"/>
       <c r="G202" s="24"/>
@@ -16038,21 +16034,21 @@
         <v>51</v>
       </c>
     </row>
-    <row r="203" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A203" s="20">
         <v>196</v>
       </c>
       <c r="B203" s="21" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="C203" s="21" t="s">
         <v>48</v>
       </c>
       <c r="D203" s="21" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="E203" s="22" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="F203" s="23"/>
       <c r="G203" s="24"/>
@@ -16072,21 +16068,21 @@
         <v>51</v>
       </c>
     </row>
-    <row r="204" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A204" s="20">
         <v>197</v>
       </c>
       <c r="B204" s="21" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="C204" s="21" t="s">
         <v>48</v>
       </c>
       <c r="D204" s="21" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="E204" s="22" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="F204" s="23"/>
       <c r="G204" s="24"/>
@@ -16106,21 +16102,21 @@
         <v>122</v>
       </c>
     </row>
-    <row r="205" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A205" s="20">
         <v>198</v>
       </c>
       <c r="B205" s="21" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="C205" s="21" t="s">
         <v>48</v>
       </c>
       <c r="D205" s="21" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="E205" s="22" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="F205" s="23"/>
       <c r="G205" s="24"/>
@@ -16140,21 +16136,21 @@
         <v>122</v>
       </c>
     </row>
-    <row r="206" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A206" s="20">
         <v>199</v>
       </c>
       <c r="B206" s="21" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="C206" s="21" t="s">
         <v>48</v>
       </c>
       <c r="D206" s="21" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="E206" s="22" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="F206" s="23"/>
       <c r="G206" s="24"/>
@@ -16174,21 +16170,21 @@
         <v>122</v>
       </c>
     </row>
-    <row r="207" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A207" s="20">
         <v>200</v>
       </c>
       <c r="B207" s="21" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="C207" s="21" t="s">
         <v>48</v>
       </c>
       <c r="D207" s="21" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="E207" s="22" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="F207" s="23"/>
       <c r="G207" s="24"/>
@@ -16208,21 +16204,21 @@
         <v>122</v>
       </c>
     </row>
-    <row r="208" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A208" s="20">
         <v>201</v>
       </c>
       <c r="B208" s="21" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="C208" s="21" t="s">
         <v>48</v>
       </c>
       <c r="D208" s="21" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="E208" s="22" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="F208" s="23"/>
       <c r="G208" s="24"/>
@@ -16242,21 +16238,21 @@
         <v>122</v>
       </c>
     </row>
-    <row r="209" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A209" s="20">
         <v>202</v>
       </c>
       <c r="B209" s="21" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="C209" s="21" t="s">
         <v>48</v>
       </c>
       <c r="D209" s="21" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="E209" s="22" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="F209" s="23"/>
       <c r="G209" s="24"/>
@@ -16276,21 +16272,21 @@
         <v>122</v>
       </c>
     </row>
-    <row r="210" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A210" s="20">
         <v>203</v>
       </c>
       <c r="B210" s="21" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="C210" s="21" t="s">
         <v>48</v>
       </c>
       <c r="D210" s="21" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="E210" s="22" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="F210" s="23"/>
       <c r="G210" s="24"/>
@@ -16310,21 +16306,21 @@
         <v>122</v>
       </c>
     </row>
-    <row r="211" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A211" s="20">
         <v>204</v>
       </c>
       <c r="B211" s="21" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="C211" s="21" t="s">
         <v>48</v>
       </c>
       <c r="D211" s="21" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="E211" s="22" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="F211" s="23"/>
       <c r="G211" s="24"/>
@@ -16344,21 +16340,21 @@
         <v>122</v>
       </c>
     </row>
-    <row r="212" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A212" s="20">
         <v>205</v>
       </c>
       <c r="B212" s="21" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="C212" s="21" t="s">
         <v>48</v>
       </c>
       <c r="D212" s="21" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="E212" s="22" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="F212" s="23"/>
       <c r="G212" s="24"/>
@@ -16378,21 +16374,21 @@
         <v>122</v>
       </c>
     </row>
-    <row r="213" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A213" s="20">
         <v>206</v>
       </c>
       <c r="B213" s="21" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="C213" s="21" t="s">
         <v>48</v>
       </c>
       <c r="D213" s="21" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="E213" s="22" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="F213" s="23"/>
       <c r="G213" s="24"/>
@@ -16412,21 +16408,21 @@
         <v>122</v>
       </c>
     </row>
-    <row r="214" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A214" s="20">
         <v>207</v>
       </c>
       <c r="B214" s="21" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="C214" s="21" t="s">
         <v>48</v>
       </c>
       <c r="D214" s="21" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="E214" s="22" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="F214" s="23"/>
       <c r="G214" s="24"/>
@@ -16446,21 +16442,21 @@
         <v>122</v>
       </c>
     </row>
-    <row r="215" spans="1:20" ht="236.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:20" ht="236.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A215" s="20">
         <v>208</v>
       </c>
       <c r="B215" s="21" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="C215" s="21" t="s">
         <v>60</v>
       </c>
       <c r="D215" s="21" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="E215" s="22" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="F215" s="23"/>
       <c r="G215" s="24"/>
@@ -16480,21 +16476,21 @@
         <v>51</v>
       </c>
     </row>
-    <row r="216" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A216" s="20">
         <v>209</v>
       </c>
       <c r="B216" s="21" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="C216" s="21" t="s">
         <v>60</v>
       </c>
       <c r="D216" s="21" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="E216" s="22" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="F216" s="23"/>
       <c r="G216" s="24"/>
@@ -16514,21 +16510,21 @@
         <v>51</v>
       </c>
     </row>
-    <row r="217" spans="1:20" ht="284.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:20" ht="284.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A217" s="20">
         <v>210</v>
       </c>
       <c r="B217" s="21" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="C217" s="21" t="s">
         <v>60</v>
       </c>
       <c r="D217" s="21" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="E217" s="22" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="F217" s="23"/>
       <c r="G217" s="24"/>
@@ -16548,21 +16544,21 @@
         <v>51</v>
       </c>
     </row>
-    <row r="218" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A218" s="20">
         <v>211</v>
       </c>
       <c r="B218" s="21" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="C218" s="21" t="s">
         <v>60</v>
       </c>
       <c r="D218" s="21" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="E218" s="22" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="F218" s="23"/>
       <c r="G218" s="24"/>
@@ -16582,21 +16578,21 @@
         <v>51</v>
       </c>
     </row>
-    <row r="219" spans="1:20" ht="267.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:20" ht="267.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A219" s="20">
         <v>212</v>
       </c>
       <c r="B219" s="21" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="C219" s="21" t="s">
         <v>60</v>
       </c>
       <c r="D219" s="21" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="E219" s="22" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="F219" s="23"/>
       <c r="G219" s="24"/>
@@ -16616,21 +16612,21 @@
         <v>51</v>
       </c>
     </row>
-    <row r="220" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A220" s="20">
         <v>213</v>
       </c>
       <c r="B220" s="21" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="C220" s="21" t="s">
         <v>60</v>
       </c>
       <c r="D220" s="21" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="E220" s="22" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="F220" s="23"/>
       <c r="G220" s="24"/>
@@ -16650,21 +16646,21 @@
         <v>122</v>
       </c>
     </row>
-    <row r="221" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A221" s="20">
         <v>214</v>
       </c>
       <c r="B221" s="21" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="C221" s="21" t="s">
         <v>60</v>
       </c>
       <c r="D221" s="21" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="E221" s="22" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="F221" s="23"/>
       <c r="G221" s="24"/>
@@ -16684,21 +16680,21 @@
         <v>122</v>
       </c>
     </row>
-    <row r="222" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A222" s="20">
         <v>215</v>
       </c>
       <c r="B222" s="21" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="C222" s="21" t="s">
         <v>60</v>
       </c>
       <c r="D222" s="21" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="E222" s="22" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="F222" s="23"/>
       <c r="G222" s="24"/>
@@ -16718,21 +16714,21 @@
         <v>122</v>
       </c>
     </row>
-    <row r="223" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A223" s="20">
         <v>216</v>
       </c>
       <c r="B223" s="21" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="C223" s="21" t="s">
         <v>60</v>
       </c>
       <c r="D223" s="21" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="E223" s="22" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="F223" s="23"/>
       <c r="G223" s="24"/>
@@ -16752,21 +16748,21 @@
         <v>122</v>
       </c>
     </row>
-    <row r="224" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A224" s="20">
         <v>217</v>
       </c>
       <c r="B224" s="21" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="C224" s="21" t="s">
         <v>60</v>
       </c>
       <c r="D224" s="21" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="E224" s="22" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="F224" s="23"/>
       <c r="G224" s="24"/>
@@ -16786,21 +16782,21 @@
         <v>122</v>
       </c>
     </row>
-    <row r="225" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A225" s="20">
         <v>218</v>
       </c>
       <c r="B225" s="21" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="C225" s="21" t="s">
         <v>60</v>
       </c>
       <c r="D225" s="21" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="E225" s="22" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
       <c r="F225" s="23"/>
       <c r="G225" s="24"/>
@@ -16820,21 +16816,21 @@
         <v>122</v>
       </c>
     </row>
-    <row r="226" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A226" s="20">
         <v>219</v>
       </c>
       <c r="B226" s="21" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="C226" s="21" t="s">
         <v>60</v>
       </c>
       <c r="D226" s="21" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="E226" s="22" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="F226" s="23"/>
       <c r="G226" s="24"/>
@@ -16854,21 +16850,21 @@
         <v>122</v>
       </c>
     </row>
-    <row r="227" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A227" s="20">
         <v>220</v>
       </c>
       <c r="B227" s="21" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="C227" s="21" t="s">
         <v>60</v>
       </c>
       <c r="D227" s="21" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="E227" s="22" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="F227" s="23"/>
       <c r="G227" s="24"/>
@@ -16888,21 +16884,21 @@
         <v>122</v>
       </c>
     </row>
-    <row r="228" spans="1:20" ht="268.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:20" ht="268.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A228" s="20">
         <v>221</v>
       </c>
       <c r="B228" s="21" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="C228" s="21" t="s">
         <v>60</v>
       </c>
       <c r="D228" s="21" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="E228" s="22" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="F228" s="23"/>
       <c r="G228" s="24"/>
@@ -16922,21 +16918,21 @@
         <v>122</v>
       </c>
     </row>
-    <row r="229" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A229" s="20">
         <v>222</v>
       </c>
       <c r="B229" s="21" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="C229" s="21" t="s">
         <v>60</v>
       </c>
       <c r="D229" s="21" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="E229" s="22" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="F229" s="23"/>
       <c r="G229" s="24"/>
@@ -16956,21 +16952,21 @@
         <v>122</v>
       </c>
     </row>
-    <row r="230" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A230" s="20">
         <v>223</v>
       </c>
       <c r="B230" s="21" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="C230" s="21" t="s">
         <v>60</v>
       </c>
       <c r="D230" s="21" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
       <c r="E230" s="22" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
       <c r="F230" s="23"/>
       <c r="G230" s="24"/>
@@ -16990,21 +16986,21 @@
         <v>122</v>
       </c>
     </row>
-    <row r="231" spans="1:20" ht="204" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:20" ht="204" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A231" s="20">
         <v>224</v>
       </c>
       <c r="B231" s="21" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="C231" s="21" t="s">
         <v>78</v>
       </c>
       <c r="D231" s="21" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
       <c r="E231" s="22" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
       <c r="F231" s="23"/>
       <c r="G231" s="24"/>
@@ -17024,21 +17020,21 @@
         <v>51</v>
       </c>
     </row>
-    <row r="232" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A232" s="20">
         <v>225</v>
       </c>
       <c r="B232" s="21" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="C232" s="21" t="s">
         <v>78</v>
       </c>
       <c r="D232" s="21" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
       <c r="E232" s="22" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="F232" s="23"/>
       <c r="G232" s="24"/>
@@ -17058,21 +17054,21 @@
         <v>51</v>
       </c>
     </row>
-    <row r="233" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A233" s="20">
         <v>226</v>
       </c>
       <c r="B233" s="21" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="C233" s="21" t="s">
         <v>78</v>
       </c>
       <c r="D233" s="21" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="E233" s="22" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="F233" s="23"/>
       <c r="G233" s="24"/>
@@ -17092,21 +17088,21 @@
         <v>51</v>
       </c>
     </row>
-    <row r="234" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A234" s="20">
         <v>227</v>
       </c>
       <c r="B234" s="21" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="C234" s="21" t="s">
         <v>78</v>
       </c>
       <c r="D234" s="21" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="E234" s="22" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
       <c r="F234" s="23"/>
       <c r="G234" s="24"/>
@@ -17126,21 +17122,21 @@
         <v>51</v>
       </c>
     </row>
-    <row r="235" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A235" s="20">
         <v>228</v>
       </c>
       <c r="B235" s="21" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="C235" s="21" t="s">
         <v>78</v>
       </c>
       <c r="D235" s="21" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="E235" s="22" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
       <c r="F235" s="23"/>
       <c r="G235" s="24"/>
@@ -17160,21 +17156,21 @@
         <v>51</v>
       </c>
     </row>
-    <row r="236" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A236" s="20">
         <v>229</v>
       </c>
       <c r="B236" s="21" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="C236" s="21" t="s">
         <v>78</v>
       </c>
       <c r="D236" s="21" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
       <c r="E236" s="22" t="s">
-        <v>686</v>
+        <v>683</v>
       </c>
       <c r="F236" s="23"/>
       <c r="G236" s="24"/>
@@ -17194,21 +17190,21 @@
         <v>122</v>
       </c>
     </row>
-    <row r="237" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A237" s="20">
         <v>230</v>
       </c>
       <c r="B237" s="21" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="C237" s="21" t="s">
         <v>78</v>
       </c>
       <c r="D237" s="21" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
       <c r="E237" s="22" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="F237" s="23"/>
       <c r="G237" s="24"/>
@@ -17228,21 +17224,21 @@
         <v>122</v>
       </c>
     </row>
-    <row r="238" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A238" s="20">
         <v>231</v>
       </c>
       <c r="B238" s="21" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="C238" s="21" t="s">
         <v>78</v>
       </c>
       <c r="D238" s="21" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
       <c r="E238" s="22" t="s">
-        <v>690</v>
+        <v>687</v>
       </c>
       <c r="F238" s="23"/>
       <c r="G238" s="24"/>
@@ -17262,21 +17258,21 @@
         <v>122</v>
       </c>
     </row>
-    <row r="239" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A239" s="20">
         <v>232</v>
       </c>
       <c r="B239" s="21" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="C239" s="21" t="s">
         <v>78</v>
       </c>
       <c r="D239" s="21" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
       <c r="E239" s="22" t="s">
-        <v>692</v>
+        <v>689</v>
       </c>
       <c r="F239" s="23"/>
       <c r="G239" s="24"/>
@@ -17296,21 +17292,21 @@
         <v>122</v>
       </c>
     </row>
-    <row r="240" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A240" s="20">
         <v>233</v>
       </c>
       <c r="B240" s="21" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="C240" s="21" t="s">
         <v>78</v>
       </c>
       <c r="D240" s="21" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
       <c r="E240" s="22" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="F240" s="23"/>
       <c r="G240" s="24"/>
@@ -17330,21 +17326,21 @@
         <v>122</v>
       </c>
     </row>
-    <row r="241" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A241" s="20">
         <v>234</v>
       </c>
       <c r="B241" s="21" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="C241" s="21" t="s">
         <v>78</v>
       </c>
       <c r="D241" s="21" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
       <c r="E241" s="22" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="F241" s="23"/>
       <c r="G241" s="24"/>
@@ -17364,21 +17360,21 @@
         <v>122</v>
       </c>
     </row>
-    <row r="242" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A242" s="20">
         <v>235</v>
       </c>
       <c r="B242" s="21" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="C242" s="21" t="s">
         <v>78</v>
       </c>
       <c r="D242" s="21" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
       <c r="E242" s="22" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
       <c r="F242" s="23"/>
       <c r="G242" s="24"/>
@@ -17398,21 +17394,21 @@
         <v>122</v>
       </c>
     </row>
-    <row r="243" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A243" s="20">
         <v>236</v>
       </c>
       <c r="B243" s="21" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="C243" s="21" t="s">
         <v>78</v>
       </c>
       <c r="D243" s="21" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
       <c r="E243" s="22" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="F243" s="23"/>
       <c r="G243" s="24"/>
@@ -17432,21 +17428,21 @@
         <v>122</v>
       </c>
     </row>
-    <row r="244" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A244" s="20">
         <v>237</v>
       </c>
       <c r="B244" s="21" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="C244" s="21" t="s">
         <v>78</v>
       </c>
       <c r="D244" s="21" t="s">
-        <v>700</v>
+        <v>697</v>
       </c>
       <c r="E244" s="22" t="s">
-        <v>701</v>
+        <v>698</v>
       </c>
       <c r="F244" s="23"/>
       <c r="G244" s="24"/>
@@ -17466,21 +17462,21 @@
         <v>122</v>
       </c>
     </row>
-    <row r="245" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A245" s="20">
         <v>238</v>
       </c>
       <c r="B245" s="21" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="C245" s="21" t="s">
         <v>78</v>
       </c>
       <c r="D245" s="21" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
       <c r="E245" s="22" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="F245" s="23"/>
       <c r="G245" s="24"/>
@@ -17500,21 +17496,21 @@
         <v>122</v>
       </c>
     </row>
-    <row r="246" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A246" s="20">
         <v>239</v>
       </c>
       <c r="B246" s="21" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="C246" s="21" t="s">
         <v>78</v>
       </c>
       <c r="D246" s="21" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="E246" s="22" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
       <c r="F246" s="23"/>
       <c r="G246" s="24"/>
@@ -17534,21 +17530,21 @@
         <v>122</v>
       </c>
     </row>
-    <row r="247" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A247" s="20">
         <v>240</v>
       </c>
       <c r="B247" s="21" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="C247" s="21" t="s">
         <v>87</v>
       </c>
       <c r="D247" s="21" t="s">
-        <v>706</v>
+        <v>703</v>
       </c>
       <c r="E247" s="22" t="s">
-        <v>707</v>
+        <v>704</v>
       </c>
       <c r="F247" s="23"/>
       <c r="G247" s="24"/>
@@ -17568,21 +17564,21 @@
         <v>51</v>
       </c>
     </row>
-    <row r="248" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A248" s="20">
         <v>241</v>
       </c>
       <c r="B248" s="21" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="C248" s="21" t="s">
         <v>87</v>
       </c>
       <c r="D248" s="21" t="s">
-        <v>708</v>
+        <v>705</v>
       </c>
       <c r="E248" s="22" t="s">
-        <v>709</v>
+        <v>706</v>
       </c>
       <c r="F248" s="23"/>
       <c r="G248" s="24"/>
@@ -17602,21 +17598,21 @@
         <v>51</v>
       </c>
     </row>
-    <row r="249" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A249" s="20">
         <v>242</v>
       </c>
       <c r="B249" s="21" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="C249" s="21" t="s">
         <v>87</v>
       </c>
       <c r="D249" s="21" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
       <c r="E249" s="22" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
       <c r="F249" s="23"/>
       <c r="G249" s="24"/>
@@ -17636,21 +17632,21 @@
         <v>51</v>
       </c>
     </row>
-    <row r="250" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A250" s="20">
         <v>243</v>
       </c>
       <c r="B250" s="21" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="C250" s="21" t="s">
         <v>87</v>
       </c>
       <c r="D250" s="21" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="E250" s="22" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
       <c r="F250" s="23"/>
       <c r="G250" s="24"/>
@@ -17670,21 +17666,21 @@
         <v>51</v>
       </c>
     </row>
-    <row r="251" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A251" s="20">
         <v>244</v>
       </c>
       <c r="B251" s="21" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="C251" s="21" t="s">
         <v>87</v>
       </c>
       <c r="D251" s="21" t="s">
-        <v>714</v>
+        <v>711</v>
       </c>
       <c r="E251" s="22" t="s">
-        <v>715</v>
+        <v>712</v>
       </c>
       <c r="F251" s="23"/>
       <c r="G251" s="24"/>
@@ -17704,21 +17700,21 @@
         <v>51</v>
       </c>
     </row>
-    <row r="252" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A252" s="20">
         <v>245</v>
       </c>
       <c r="B252" s="21" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="C252" s="21" t="s">
         <v>87</v>
       </c>
       <c r="D252" s="21" t="s">
-        <v>716</v>
+        <v>713</v>
       </c>
       <c r="E252" s="22" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
       <c r="F252" s="23"/>
       <c r="G252" s="24"/>
@@ -17738,21 +17734,21 @@
         <v>122</v>
       </c>
     </row>
-    <row r="253" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A253" s="20">
         <v>246</v>
       </c>
       <c r="B253" s="21" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="C253" s="21" t="s">
         <v>87</v>
       </c>
       <c r="D253" s="21" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
       <c r="E253" s="22" t="s">
-        <v>719</v>
+        <v>716</v>
       </c>
       <c r="F253" s="23"/>
       <c r="G253" s="24"/>
@@ -17772,21 +17768,21 @@
         <v>122</v>
       </c>
     </row>
-    <row r="254" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A254" s="20">
         <v>247</v>
       </c>
       <c r="B254" s="21" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="C254" s="21" t="s">
         <v>87</v>
       </c>
       <c r="D254" s="21" t="s">
-        <v>720</v>
+        <v>717</v>
       </c>
       <c r="E254" s="22" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
       <c r="F254" s="23"/>
       <c r="G254" s="24"/>
@@ -17806,21 +17802,21 @@
         <v>122</v>
       </c>
     </row>
-    <row r="255" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A255" s="20">
         <v>248</v>
       </c>
       <c r="B255" s="21" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="C255" s="21" t="s">
         <v>87</v>
       </c>
       <c r="D255" s="21" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="E255" s="22" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="F255" s="23"/>
       <c r="G255" s="24"/>
@@ -17840,21 +17836,21 @@
         <v>122</v>
       </c>
     </row>
-    <row r="256" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A256" s="20">
         <v>249</v>
       </c>
       <c r="B256" s="21" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="C256" s="21" t="s">
         <v>87</v>
       </c>
       <c r="D256" s="21" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
       <c r="E256" s="22" t="s">
-        <v>725</v>
+        <v>722</v>
       </c>
       <c r="F256" s="23"/>
       <c r="G256" s="24"/>
@@ -17874,21 +17870,21 @@
         <v>122</v>
       </c>
     </row>
-    <row r="257" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A257" s="20">
         <v>250</v>
       </c>
       <c r="B257" s="21" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="C257" s="21" t="s">
         <v>87</v>
       </c>
       <c r="D257" s="21" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
       <c r="E257" s="22" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
       <c r="F257" s="23"/>
       <c r="G257" s="24"/>
@@ -17908,21 +17904,21 @@
         <v>122</v>
       </c>
     </row>
-    <row r="258" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A258" s="20">
         <v>251</v>
       </c>
       <c r="B258" s="21" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="C258" s="21" t="s">
         <v>87</v>
       </c>
       <c r="D258" s="21" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
       <c r="E258" s="22" t="s">
-        <v>729</v>
+        <v>726</v>
       </c>
       <c r="F258" s="23"/>
       <c r="G258" s="24"/>
@@ -17942,21 +17938,21 @@
         <v>122</v>
       </c>
     </row>
-    <row r="259" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A259" s="20">
         <v>252</v>
       </c>
       <c r="B259" s="21" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="C259" s="21" t="s">
         <v>87</v>
       </c>
       <c r="D259" s="21" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
       <c r="E259" s="22" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="F259" s="23"/>
       <c r="G259" s="24"/>
@@ -17976,21 +17972,21 @@
         <v>122</v>
       </c>
     </row>
-    <row r="260" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A260" s="20">
         <v>253</v>
       </c>
       <c r="B260" s="21" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="C260" s="21" t="s">
         <v>87</v>
       </c>
       <c r="D260" s="21" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="E260" s="22" t="s">
-        <v>732</v>
+        <v>729</v>
       </c>
       <c r="F260" s="23"/>
       <c r="G260" s="24"/>
@@ -18010,21 +18006,21 @@
         <v>122</v>
       </c>
     </row>
-    <row r="261" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A261" s="20">
         <v>254</v>
       </c>
       <c r="B261" s="21" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="C261" s="21" t="s">
         <v>87</v>
       </c>
       <c r="D261" s="21" t="s">
-        <v>733</v>
+        <v>730</v>
       </c>
       <c r="E261" s="22" t="s">
-        <v>734</v>
+        <v>731</v>
       </c>
       <c r="F261" s="23"/>
       <c r="G261" s="24"/>
@@ -18044,21 +18040,21 @@
         <v>122</v>
       </c>
     </row>
-    <row r="262" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A262" s="20">
         <v>255</v>
       </c>
       <c r="B262" s="21" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="C262" s="21" t="s">
         <v>87</v>
       </c>
       <c r="D262" s="21" t="s">
-        <v>735</v>
+        <v>732</v>
       </c>
       <c r="E262" s="22" t="s">
-        <v>736</v>
+        <v>733</v>
       </c>
       <c r="F262" s="23"/>
       <c r="G262" s="24"/>
@@ -18078,21 +18074,21 @@
         <v>122</v>
       </c>
     </row>
-    <row r="263" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A263" s="20">
         <v>256</v>
       </c>
       <c r="B263" s="21" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="C263" s="21" t="s">
         <v>96</v>
       </c>
       <c r="D263" s="21" t="s">
-        <v>737</v>
+        <v>734</v>
       </c>
       <c r="E263" s="22" t="s">
-        <v>738</v>
+        <v>735</v>
       </c>
       <c r="F263" s="23"/>
       <c r="G263" s="24"/>
@@ -18112,21 +18108,21 @@
         <v>51</v>
       </c>
     </row>
-    <row r="264" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A264" s="20">
         <v>257</v>
       </c>
       <c r="B264" s="21" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="C264" s="21" t="s">
         <v>96</v>
       </c>
       <c r="D264" s="21" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="E264" s="22" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
       <c r="F264" s="23"/>
       <c r="G264" s="24"/>
@@ -18146,21 +18142,21 @@
         <v>51</v>
       </c>
     </row>
-    <row r="265" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A265" s="20">
         <v>258</v>
       </c>
       <c r="B265" s="21" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="C265" s="21" t="s">
         <v>96</v>
       </c>
       <c r="D265" s="21" t="s">
-        <v>741</v>
+        <v>738</v>
       </c>
       <c r="E265" s="22" t="s">
-        <v>742</v>
+        <v>739</v>
       </c>
       <c r="F265" s="23"/>
       <c r="G265" s="24"/>
@@ -18180,21 +18176,21 @@
         <v>51</v>
       </c>
     </row>
-    <row r="266" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A266" s="20">
         <v>259</v>
       </c>
       <c r="B266" s="21" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="C266" s="21" t="s">
         <v>96</v>
       </c>
       <c r="D266" s="21" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
       <c r="E266" s="22" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="F266" s="23"/>
       <c r="G266" s="24"/>
@@ -18214,21 +18210,21 @@
         <v>51</v>
       </c>
     </row>
-    <row r="267" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A267" s="20">
         <v>260</v>
       </c>
       <c r="B267" s="21" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="C267" s="21" t="s">
         <v>96</v>
       </c>
       <c r="D267" s="21" t="s">
-        <v>745</v>
+        <v>742</v>
       </c>
       <c r="E267" s="22" t="s">
-        <v>746</v>
+        <v>743</v>
       </c>
       <c r="F267" s="23"/>
       <c r="G267" s="24"/>
@@ -18248,21 +18244,21 @@
         <v>51</v>
       </c>
     </row>
-    <row r="268" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A268" s="20">
         <v>261</v>
       </c>
       <c r="B268" s="21" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="C268" s="21" t="s">
         <v>96</v>
       </c>
       <c r="D268" s="21" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="E268" s="22" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
       <c r="F268" s="23"/>
       <c r="G268" s="24"/>
@@ -18282,21 +18278,21 @@
         <v>122</v>
       </c>
     </row>
-    <row r="269" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A269" s="20">
         <v>262</v>
       </c>
       <c r="B269" s="21" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="C269" s="21" t="s">
         <v>96</v>
       </c>
       <c r="D269" s="21" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
       <c r="E269" s="22" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
       <c r="F269" s="23"/>
       <c r="G269" s="24"/>
@@ -18316,21 +18312,21 @@
         <v>122</v>
       </c>
     </row>
-    <row r="270" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A270" s="20">
         <v>263</v>
       </c>
       <c r="B270" s="21" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="C270" s="21" t="s">
         <v>96</v>
       </c>
       <c r="D270" s="21" t="s">
-        <v>751</v>
+        <v>748</v>
       </c>
       <c r="E270" s="22" t="s">
-        <v>752</v>
+        <v>749</v>
       </c>
       <c r="F270" s="23"/>
       <c r="G270" s="24"/>
@@ -18350,21 +18346,21 @@
         <v>122</v>
       </c>
     </row>
-    <row r="271" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A271" s="20">
         <v>264</v>
       </c>
       <c r="B271" s="21" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="C271" s="21" t="s">
         <v>96</v>
       </c>
       <c r="D271" s="21" t="s">
-        <v>753</v>
+        <v>750</v>
       </c>
       <c r="E271" s="22" t="s">
-        <v>754</v>
+        <v>751</v>
       </c>
       <c r="F271" s="23"/>
       <c r="G271" s="24"/>
@@ -18384,21 +18380,21 @@
         <v>122</v>
       </c>
     </row>
-    <row r="272" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A272" s="20">
         <v>265</v>
       </c>
       <c r="B272" s="21" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="C272" s="21" t="s">
         <v>96</v>
       </c>
       <c r="D272" s="21" t="s">
-        <v>755</v>
+        <v>752</v>
       </c>
       <c r="E272" s="22" t="s">
-        <v>756</v>
+        <v>753</v>
       </c>
       <c r="F272" s="23"/>
       <c r="G272" s="24"/>
@@ -18418,21 +18414,21 @@
         <v>122</v>
       </c>
     </row>
-    <row r="273" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A273" s="20">
         <v>266</v>
       </c>
       <c r="B273" s="21" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="C273" s="21" t="s">
         <v>96</v>
       </c>
       <c r="D273" s="21" t="s">
-        <v>757</v>
+        <v>754</v>
       </c>
       <c r="E273" s="22" t="s">
-        <v>758</v>
+        <v>755</v>
       </c>
       <c r="F273" s="23"/>
       <c r="G273" s="24"/>
@@ -18452,21 +18448,21 @@
         <v>122</v>
       </c>
     </row>
-    <row r="274" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A274" s="20">
         <v>267</v>
       </c>
       <c r="B274" s="21" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="C274" s="21" t="s">
         <v>96</v>
       </c>
       <c r="D274" s="21" t="s">
-        <v>759</v>
+        <v>756</v>
       </c>
       <c r="E274" s="22" t="s">
-        <v>760</v>
+        <v>757</v>
       </c>
       <c r="F274" s="23"/>
       <c r="G274" s="24"/>
@@ -18486,21 +18482,21 @@
         <v>122</v>
       </c>
     </row>
-    <row r="275" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A275" s="20">
         <v>268</v>
       </c>
       <c r="B275" s="21" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="C275" s="21" t="s">
         <v>96</v>
       </c>
       <c r="D275" s="21" t="s">
-        <v>761</v>
+        <v>758</v>
       </c>
       <c r="E275" s="22" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="F275" s="23"/>
       <c r="G275" s="24"/>
@@ -18520,21 +18516,21 @@
         <v>122</v>
       </c>
     </row>
-    <row r="276" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A276" s="20">
         <v>269</v>
       </c>
       <c r="B276" s="21" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="C276" s="21" t="s">
         <v>96</v>
       </c>
       <c r="D276" s="21" t="s">
-        <v>762</v>
+        <v>759</v>
       </c>
       <c r="E276" s="22" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
       <c r="F276" s="23"/>
       <c r="G276" s="24"/>
@@ -18554,21 +18550,21 @@
         <v>122</v>
       </c>
     </row>
-    <row r="277" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A277" s="20">
         <v>270</v>
       </c>
       <c r="B277" s="21" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="C277" s="21" t="s">
         <v>96</v>
       </c>
       <c r="D277" s="21" t="s">
-        <v>764</v>
+        <v>761</v>
       </c>
       <c r="E277" s="22" t="s">
-        <v>765</v>
+        <v>762</v>
       </c>
       <c r="F277" s="23"/>
       <c r="G277" s="24"/>
@@ -18588,21 +18584,21 @@
         <v>122</v>
       </c>
     </row>
-    <row r="278" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A278" s="20">
         <v>271</v>
       </c>
       <c r="B278" s="21" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="C278" s="21" t="s">
         <v>96</v>
       </c>
       <c r="D278" s="21" t="s">
-        <v>766</v>
+        <v>763</v>
       </c>
       <c r="E278" s="22" t="s">
-        <v>767</v>
+        <v>764</v>
       </c>
       <c r="F278" s="23"/>
       <c r="G278" s="24"/>
@@ -18622,21 +18618,21 @@
         <v>122</v>
       </c>
     </row>
-    <row r="279" spans="1:20" ht="237" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:20" ht="237" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A279" s="20">
         <v>272</v>
       </c>
       <c r="B279" s="21" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="C279" s="21" t="s">
         <v>105</v>
       </c>
       <c r="D279" s="21" t="s">
-        <v>768</v>
+        <v>765</v>
       </c>
       <c r="E279" s="22" t="s">
-        <v>769</v>
+        <v>766</v>
       </c>
       <c r="F279" s="23"/>
       <c r="G279" s="24"/>
@@ -18656,21 +18652,21 @@
         <v>51</v>
       </c>
     </row>
-    <row r="280" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A280" s="20">
         <v>273</v>
       </c>
       <c r="B280" s="21" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="C280" s="21" t="s">
         <v>105</v>
       </c>
       <c r="D280" s="21" t="s">
-        <v>770</v>
+        <v>767</v>
       </c>
       <c r="E280" s="22" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
       <c r="F280" s="23"/>
       <c r="G280" s="24"/>
@@ -18690,21 +18686,21 @@
         <v>51</v>
       </c>
     </row>
-    <row r="281" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A281" s="20">
         <v>274</v>
       </c>
       <c r="B281" s="21" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="C281" s="21" t="s">
         <v>105</v>
       </c>
       <c r="D281" s="21" t="s">
-        <v>772</v>
+        <v>769</v>
       </c>
       <c r="E281" s="22" t="s">
-        <v>773</v>
+        <v>770</v>
       </c>
       <c r="F281" s="23"/>
       <c r="G281" s="24"/>
@@ -18724,21 +18720,21 @@
         <v>51</v>
       </c>
     </row>
-    <row r="282" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A282" s="20">
         <v>275</v>
       </c>
       <c r="B282" s="21" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="C282" s="21" t="s">
         <v>105</v>
       </c>
       <c r="D282" s="21" t="s">
-        <v>774</v>
+        <v>771</v>
       </c>
       <c r="E282" s="22" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
       <c r="F282" s="23"/>
       <c r="G282" s="24"/>
@@ -18758,21 +18754,21 @@
         <v>51</v>
       </c>
     </row>
-    <row r="283" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A283" s="20">
         <v>276</v>
       </c>
       <c r="B283" s="21" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="C283" s="21" t="s">
         <v>105</v>
       </c>
       <c r="D283" s="21" t="s">
-        <v>776</v>
+        <v>773</v>
       </c>
       <c r="E283" s="22" t="s">
-        <v>777</v>
+        <v>774</v>
       </c>
       <c r="F283" s="23"/>
       <c r="G283" s="24"/>
@@ -18792,21 +18788,21 @@
         <v>51</v>
       </c>
     </row>
-    <row r="284" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A284" s="20">
         <v>277</v>
       </c>
       <c r="B284" s="21" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="C284" s="21" t="s">
         <v>105</v>
       </c>
       <c r="D284" s="21" t="s">
-        <v>778</v>
+        <v>775</v>
       </c>
       <c r="E284" s="22" t="s">
-        <v>779</v>
+        <v>776</v>
       </c>
       <c r="F284" s="23"/>
       <c r="G284" s="24"/>
@@ -18826,21 +18822,21 @@
         <v>122</v>
       </c>
     </row>
-    <row r="285" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A285" s="20">
         <v>278</v>
       </c>
       <c r="B285" s="21" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="C285" s="21" t="s">
         <v>105</v>
       </c>
       <c r="D285" s="21" t="s">
-        <v>780</v>
+        <v>777</v>
       </c>
       <c r="E285" s="22" t="s">
-        <v>781</v>
+        <v>778</v>
       </c>
       <c r="F285" s="23"/>
       <c r="G285" s="24"/>
@@ -18860,21 +18856,21 @@
         <v>122</v>
       </c>
     </row>
-    <row r="286" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A286" s="20">
         <v>279</v>
       </c>
       <c r="B286" s="21" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="C286" s="21" t="s">
         <v>105</v>
       </c>
       <c r="D286" s="21" t="s">
-        <v>782</v>
+        <v>779</v>
       </c>
       <c r="E286" s="22" t="s">
-        <v>783</v>
+        <v>780</v>
       </c>
       <c r="F286" s="23"/>
       <c r="G286" s="24"/>
@@ -18894,21 +18890,21 @@
         <v>122</v>
       </c>
     </row>
-    <row r="287" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A287" s="20">
         <v>280</v>
       </c>
       <c r="B287" s="21" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="C287" s="21" t="s">
         <v>105</v>
       </c>
       <c r="D287" s="21" t="s">
-        <v>784</v>
+        <v>781</v>
       </c>
       <c r="E287" s="22" t="s">
-        <v>785</v>
+        <v>782</v>
       </c>
       <c r="F287" s="23"/>
       <c r="G287" s="24"/>
@@ -18928,21 +18924,21 @@
         <v>122</v>
       </c>
     </row>
-    <row r="288" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A288" s="20">
         <v>281</v>
       </c>
       <c r="B288" s="21" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="C288" s="21" t="s">
         <v>105</v>
       </c>
       <c r="D288" s="21" t="s">
-        <v>786</v>
+        <v>783</v>
       </c>
       <c r="E288" s="22" t="s">
-        <v>787</v>
+        <v>784</v>
       </c>
       <c r="F288" s="23"/>
       <c r="G288" s="24"/>
@@ -18962,21 +18958,21 @@
         <v>122</v>
       </c>
     </row>
-    <row r="289" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A289" s="20">
         <v>282</v>
       </c>
       <c r="B289" s="21" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="C289" s="21" t="s">
         <v>105</v>
       </c>
       <c r="D289" s="21" t="s">
-        <v>788</v>
+        <v>785</v>
       </c>
       <c r="E289" s="22" t="s">
-        <v>789</v>
+        <v>786</v>
       </c>
       <c r="F289" s="23"/>
       <c r="G289" s="24"/>
@@ -18996,21 +18992,21 @@
         <v>122</v>
       </c>
     </row>
-    <row r="290" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A290" s="20">
         <v>283</v>
       </c>
       <c r="B290" s="21" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="C290" s="21" t="s">
         <v>105</v>
       </c>
       <c r="D290" s="21" t="s">
-        <v>790</v>
+        <v>787</v>
       </c>
       <c r="E290" s="22" t="s">
-        <v>791</v>
+        <v>788</v>
       </c>
       <c r="F290" s="23"/>
       <c r="G290" s="24"/>
@@ -19030,21 +19026,21 @@
         <v>122</v>
       </c>
     </row>
-    <row r="291" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A291" s="20">
         <v>284</v>
       </c>
       <c r="B291" s="21" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="C291" s="21" t="s">
         <v>105</v>
       </c>
       <c r="D291" s="21" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
       <c r="E291" s="22" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="F291" s="23"/>
       <c r="G291" s="24"/>
@@ -19064,21 +19060,21 @@
         <v>122</v>
       </c>
     </row>
-    <row r="292" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="292" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A292" s="20">
         <v>285</v>
       </c>
       <c r="B292" s="21" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="C292" s="21" t="s">
         <v>105</v>
       </c>
       <c r="D292" s="21" t="s">
-        <v>793</v>
+        <v>790</v>
       </c>
       <c r="E292" s="22" t="s">
-        <v>794</v>
+        <v>791</v>
       </c>
       <c r="F292" s="23"/>
       <c r="G292" s="24"/>
@@ -19098,21 +19094,21 @@
         <v>122</v>
       </c>
     </row>
-    <row r="293" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="293" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A293" s="20">
         <v>286</v>
       </c>
       <c r="B293" s="21" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="C293" s="21" t="s">
         <v>105</v>
       </c>
       <c r="D293" s="21" t="s">
-        <v>795</v>
+        <v>792</v>
       </c>
       <c r="E293" s="22" t="s">
-        <v>796</v>
+        <v>793</v>
       </c>
       <c r="F293" s="23"/>
       <c r="G293" s="24"/>
@@ -19132,21 +19128,21 @@
         <v>122</v>
       </c>
     </row>
-    <row r="294" spans="1:20" ht="263.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:20" ht="263.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A294" s="20">
         <v>287</v>
       </c>
       <c r="B294" s="21" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="C294" s="21" t="s">
         <v>105</v>
       </c>
       <c r="D294" s="21" t="s">
-        <v>797</v>
+        <v>794</v>
       </c>
       <c r="E294" s="22" t="s">
-        <v>798</v>
+        <v>795</v>
       </c>
       <c r="F294" s="23"/>
       <c r="G294" s="24"/>
@@ -19166,21 +19162,21 @@
         <v>122</v>
       </c>
     </row>
-    <row r="295" spans="1:20" ht="264" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:20" ht="264" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A295" s="20">
         <v>288</v>
       </c>
       <c r="B295" s="21" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="C295" s="21" t="s">
         <v>135</v>
       </c>
       <c r="D295" s="21" t="s">
-        <v>799</v>
+        <v>796</v>
       </c>
       <c r="E295" s="22" t="s">
-        <v>800</v>
+        <v>797</v>
       </c>
       <c r="F295" s="23"/>
       <c r="G295" s="24"/>
@@ -19200,21 +19196,21 @@
         <v>51</v>
       </c>
     </row>
-    <row r="296" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="296" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A296" s="20">
         <v>289</v>
       </c>
       <c r="B296" s="21" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="C296" s="21" t="s">
         <v>135</v>
       </c>
       <c r="D296" s="21" t="s">
-        <v>801</v>
+        <v>798</v>
       </c>
       <c r="E296" s="22" t="s">
-        <v>802</v>
+        <v>799</v>
       </c>
       <c r="F296" s="23"/>
       <c r="G296" s="24"/>
@@ -19234,21 +19230,21 @@
         <v>51</v>
       </c>
     </row>
-    <row r="297" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="297" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A297" s="20">
         <v>290</v>
       </c>
       <c r="B297" s="21" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="C297" s="21" t="s">
         <v>135</v>
       </c>
       <c r="D297" s="21" t="s">
-        <v>803</v>
+        <v>800</v>
       </c>
       <c r="E297" s="22" t="s">
-        <v>804</v>
+        <v>801</v>
       </c>
       <c r="F297" s="23"/>
       <c r="G297" s="24"/>
@@ -19268,21 +19264,21 @@
         <v>51</v>
       </c>
     </row>
-    <row r="298" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="298" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A298" s="20">
         <v>291</v>
       </c>
       <c r="B298" s="21" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="C298" s="21" t="s">
         <v>135</v>
       </c>
       <c r="D298" s="21" t="s">
-        <v>805</v>
+        <v>802</v>
       </c>
       <c r="E298" s="22" t="s">
-        <v>806</v>
+        <v>803</v>
       </c>
       <c r="F298" s="23"/>
       <c r="G298" s="24"/>
@@ -19302,21 +19298,21 @@
         <v>51</v>
       </c>
     </row>
-    <row r="299" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="299" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A299" s="20">
         <v>292</v>
       </c>
       <c r="B299" s="21" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="C299" s="21" t="s">
         <v>135</v>
       </c>
       <c r="D299" s="21" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="E299" s="22" t="s">
-        <v>808</v>
+        <v>805</v>
       </c>
       <c r="F299" s="23"/>
       <c r="G299" s="24"/>
@@ -19336,21 +19332,21 @@
         <v>51</v>
       </c>
     </row>
-    <row r="300" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="300" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A300" s="20">
         <v>293</v>
       </c>
       <c r="B300" s="21" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="C300" s="21" t="s">
         <v>135</v>
       </c>
       <c r="D300" s="21" t="s">
-        <v>809</v>
+        <v>806</v>
       </c>
       <c r="E300" s="22" t="s">
-        <v>810</v>
+        <v>807</v>
       </c>
       <c r="F300" s="23"/>
       <c r="G300" s="24"/>
@@ -19370,21 +19366,21 @@
         <v>122</v>
       </c>
     </row>
-    <row r="301" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="301" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A301" s="20">
         <v>294</v>
       </c>
       <c r="B301" s="21" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="C301" s="21" t="s">
         <v>135</v>
       </c>
       <c r="D301" s="21" t="s">
-        <v>811</v>
+        <v>808</v>
       </c>
       <c r="E301" s="22" t="s">
-        <v>812</v>
+        <v>809</v>
       </c>
       <c r="F301" s="23"/>
       <c r="G301" s="24"/>
@@ -19404,21 +19400,21 @@
         <v>122</v>
       </c>
     </row>
-    <row r="302" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="302" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A302" s="20">
         <v>295</v>
       </c>
       <c r="B302" s="21" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="C302" s="21" t="s">
         <v>135</v>
       </c>
       <c r="D302" s="21" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
       <c r="E302" s="22" t="s">
-        <v>814</v>
+        <v>811</v>
       </c>
       <c r="F302" s="23"/>
       <c r="G302" s="24"/>
@@ -19438,21 +19434,21 @@
         <v>122</v>
       </c>
     </row>
-    <row r="303" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="303" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A303" s="20">
         <v>296</v>
       </c>
       <c r="B303" s="21" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="C303" s="21" t="s">
         <v>135</v>
       </c>
       <c r="D303" s="21" t="s">
-        <v>815</v>
+        <v>812</v>
       </c>
       <c r="E303" s="22" t="s">
-        <v>816</v>
+        <v>813</v>
       </c>
       <c r="F303" s="23"/>
       <c r="G303" s="24"/>
@@ -19472,21 +19468,21 @@
         <v>122</v>
       </c>
     </row>
-    <row r="304" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="304" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A304" s="20">
         <v>297</v>
       </c>
       <c r="B304" s="21" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="C304" s="21" t="s">
         <v>135</v>
       </c>
       <c r="D304" s="21" t="s">
-        <v>817</v>
+        <v>814</v>
       </c>
       <c r="E304" s="22" t="s">
-        <v>818</v>
+        <v>815</v>
       </c>
       <c r="F304" s="23"/>
       <c r="G304" s="24"/>
@@ -19506,21 +19502,21 @@
         <v>122</v>
       </c>
     </row>
-    <row r="305" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="305" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A305" s="20">
         <v>298</v>
       </c>
       <c r="B305" s="21" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="C305" s="21" t="s">
         <v>135</v>
       </c>
       <c r="D305" s="21" t="s">
-        <v>819</v>
+        <v>816</v>
       </c>
       <c r="E305" s="22" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
       <c r="F305" s="23"/>
       <c r="G305" s="24"/>
@@ -19540,21 +19536,21 @@
         <v>122</v>
       </c>
     </row>
-    <row r="306" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="306" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A306" s="20">
         <v>299</v>
       </c>
       <c r="B306" s="21" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="C306" s="21" t="s">
         <v>135</v>
       </c>
       <c r="D306" s="21" t="s">
-        <v>821</v>
+        <v>818</v>
       </c>
       <c r="E306" s="22" t="s">
-        <v>822</v>
+        <v>819</v>
       </c>
       <c r="F306" s="23"/>
       <c r="G306" s="24"/>
@@ -19574,21 +19570,21 @@
         <v>122</v>
       </c>
     </row>
-    <row r="307" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="307" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A307" s="20">
         <v>300</v>
       </c>
       <c r="B307" s="21" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="C307" s="21" t="s">
         <v>135</v>
       </c>
       <c r="D307" s="21" t="s">
-        <v>823</v>
+        <v>820</v>
       </c>
       <c r="E307" s="22" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="F307" s="23"/>
       <c r="G307" s="24"/>
@@ -19608,21 +19604,21 @@
         <v>122</v>
       </c>
     </row>
-    <row r="308" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="308" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A308" s="20">
         <v>301</v>
       </c>
       <c r="B308" s="21" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="C308" s="21" t="s">
         <v>135</v>
       </c>
       <c r="D308" s="21" t="s">
-        <v>824</v>
+        <v>821</v>
       </c>
       <c r="E308" s="22" t="s">
-        <v>825</v>
+        <v>822</v>
       </c>
       <c r="F308" s="23"/>
       <c r="G308" s="24"/>
@@ -19642,21 +19638,21 @@
         <v>122</v>
       </c>
     </row>
-    <row r="309" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="309" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A309" s="20">
         <v>302</v>
       </c>
       <c r="B309" s="21" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="C309" s="21" t="s">
         <v>135</v>
       </c>
       <c r="D309" s="21" t="s">
-        <v>826</v>
+        <v>823</v>
       </c>
       <c r="E309" s="22" t="s">
-        <v>827</v>
+        <v>824</v>
       </c>
       <c r="F309" s="23"/>
       <c r="G309" s="24"/>
@@ -19676,21 +19672,21 @@
         <v>122</v>
       </c>
     </row>
-    <row r="310" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="310" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A310" s="20">
         <v>303</v>
       </c>
       <c r="B310" s="21" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="C310" s="21" t="s">
         <v>135</v>
       </c>
       <c r="D310" s="21" t="s">
-        <v>828</v>
+        <v>825</v>
       </c>
       <c r="E310" s="22" t="s">
-        <v>829</v>
+        <v>826</v>
       </c>
       <c r="F310" s="23"/>
       <c r="G310" s="24"/>
@@ -19710,21 +19706,21 @@
         <v>122</v>
       </c>
     </row>
-    <row r="311" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="311" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A311" s="20">
         <v>304</v>
       </c>
       <c r="B311" s="21" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="C311" s="21" t="s">
         <v>130</v>
       </c>
       <c r="D311" s="21" t="s">
-        <v>830</v>
+        <v>827</v>
       </c>
       <c r="E311" s="22" t="s">
-        <v>831</v>
+        <v>828</v>
       </c>
       <c r="F311" s="23"/>
       <c r="G311" s="24"/>
@@ -19744,21 +19740,21 @@
         <v>51</v>
       </c>
     </row>
-    <row r="312" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="312" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A312" s="20">
         <v>305</v>
       </c>
       <c r="B312" s="21" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="C312" s="21" t="s">
         <v>130</v>
       </c>
       <c r="D312" s="21" t="s">
-        <v>832</v>
+        <v>829</v>
       </c>
       <c r="E312" s="22" t="s">
-        <v>833</v>
+        <v>830</v>
       </c>
       <c r="F312" s="23"/>
       <c r="G312" s="24"/>
@@ -19778,21 +19774,21 @@
         <v>51</v>
       </c>
     </row>
-    <row r="313" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="313" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A313" s="20">
         <v>306</v>
       </c>
       <c r="B313" s="21" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="C313" s="21" t="s">
         <v>130</v>
       </c>
       <c r="D313" s="21" t="s">
-        <v>834</v>
+        <v>831</v>
       </c>
       <c r="E313" s="22" t="s">
-        <v>835</v>
+        <v>832</v>
       </c>
       <c r="F313" s="23"/>
       <c r="G313" s="24"/>
@@ -19812,21 +19808,21 @@
         <v>51</v>
       </c>
     </row>
-    <row r="314" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="314" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A314" s="20">
         <v>307</v>
       </c>
       <c r="B314" s="21" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="C314" s="21" t="s">
         <v>130</v>
       </c>
       <c r="D314" s="21" t="s">
-        <v>836</v>
+        <v>833</v>
       </c>
       <c r="E314" s="22" t="s">
-        <v>837</v>
+        <v>834</v>
       </c>
       <c r="F314" s="23"/>
       <c r="G314" s="24"/>
@@ -19846,21 +19842,21 @@
         <v>51</v>
       </c>
     </row>
-    <row r="315" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="315" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A315" s="20">
         <v>308</v>
       </c>
       <c r="B315" s="21" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="C315" s="21" t="s">
         <v>130</v>
       </c>
       <c r="D315" s="21" t="s">
-        <v>838</v>
+        <v>835</v>
       </c>
       <c r="E315" s="22" t="s">
-        <v>839</v>
+        <v>836</v>
       </c>
       <c r="F315" s="23"/>
       <c r="G315" s="24"/>
@@ -19880,21 +19876,21 @@
         <v>51</v>
       </c>
     </row>
-    <row r="316" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="316" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A316" s="20">
         <v>309</v>
       </c>
       <c r="B316" s="21" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="C316" s="21" t="s">
         <v>130</v>
       </c>
       <c r="D316" s="21" t="s">
-        <v>840</v>
+        <v>837</v>
       </c>
       <c r="E316" s="22" t="s">
-        <v>841</v>
+        <v>838</v>
       </c>
       <c r="F316" s="23"/>
       <c r="G316" s="24"/>
@@ -19914,21 +19910,21 @@
         <v>122</v>
       </c>
     </row>
-    <row r="317" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="317" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A317" s="20">
         <v>310</v>
       </c>
       <c r="B317" s="21" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="C317" s="21" t="s">
         <v>130</v>
       </c>
       <c r="D317" s="21" t="s">
-        <v>842</v>
+        <v>839</v>
       </c>
       <c r="E317" s="22" t="s">
-        <v>843</v>
+        <v>840</v>
       </c>
       <c r="F317" s="23"/>
       <c r="G317" s="24"/>
@@ -19948,21 +19944,21 @@
         <v>122</v>
       </c>
     </row>
-    <row r="318" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="318" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A318" s="20">
         <v>311</v>
       </c>
       <c r="B318" s="21" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="C318" s="21" t="s">
         <v>130</v>
       </c>
       <c r="D318" s="21" t="s">
-        <v>844</v>
+        <v>841</v>
       </c>
       <c r="E318" s="22" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="F318" s="23"/>
       <c r="G318" s="24"/>
@@ -19982,21 +19978,21 @@
         <v>122</v>
       </c>
     </row>
-    <row r="319" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="319" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A319" s="20">
         <v>312</v>
       </c>
       <c r="B319" s="21" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="C319" s="21" t="s">
         <v>130</v>
       </c>
       <c r="D319" s="21" t="s">
-        <v>846</v>
+        <v>843</v>
       </c>
       <c r="E319" s="22" t="s">
-        <v>847</v>
+        <v>844</v>
       </c>
       <c r="F319" s="23"/>
       <c r="G319" s="24"/>
@@ -20016,21 +20012,21 @@
         <v>122</v>
       </c>
     </row>
-    <row r="320" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="320" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A320" s="20">
         <v>313</v>
       </c>
       <c r="B320" s="21" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="C320" s="21" t="s">
         <v>130</v>
       </c>
       <c r="D320" s="21" t="s">
-        <v>848</v>
+        <v>845</v>
       </c>
       <c r="E320" s="22" t="s">
-        <v>849</v>
+        <v>846</v>
       </c>
       <c r="F320" s="23"/>
       <c r="G320" s="24"/>
@@ -20050,21 +20046,21 @@
         <v>122</v>
       </c>
     </row>
-    <row r="321" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="321" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A321" s="20">
         <v>314</v>
       </c>
       <c r="B321" s="21" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="C321" s="21" t="s">
         <v>130</v>
       </c>
       <c r="D321" s="21" t="s">
-        <v>850</v>
+        <v>847</v>
       </c>
       <c r="E321" s="22" t="s">
-        <v>851</v>
+        <v>848</v>
       </c>
       <c r="F321" s="23"/>
       <c r="G321" s="24"/>
@@ -20084,21 +20080,21 @@
         <v>122</v>
       </c>
     </row>
-    <row r="322" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="322" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A322" s="20">
         <v>315</v>
       </c>
       <c r="B322" s="21" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="C322" s="21" t="s">
         <v>130</v>
       </c>
       <c r="D322" s="21" t="s">
-        <v>852</v>
+        <v>849</v>
       </c>
       <c r="E322" s="22" t="s">
-        <v>853</v>
+        <v>850</v>
       </c>
       <c r="F322" s="23"/>
       <c r="G322" s="24"/>
@@ -20118,21 +20114,21 @@
         <v>122</v>
       </c>
     </row>
-    <row r="323" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="323" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A323" s="20">
         <v>316</v>
       </c>
       <c r="B323" s="21" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="C323" s="21" t="s">
         <v>130</v>
       </c>
       <c r="D323" s="21" t="s">
-        <v>854</v>
+        <v>851</v>
       </c>
       <c r="E323" s="22" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="F323" s="23"/>
       <c r="G323" s="24"/>
@@ -20152,21 +20148,21 @@
         <v>122</v>
       </c>
     </row>
-    <row r="324" spans="1:20" ht="253.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="324" spans="1:20" ht="253.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A324" s="20">
         <v>317</v>
       </c>
       <c r="B324" s="21" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="C324" s="21" t="s">
         <v>130</v>
       </c>
       <c r="D324" s="21" t="s">
-        <v>855</v>
+        <v>852</v>
       </c>
       <c r="E324" s="22" t="s">
-        <v>856</v>
+        <v>853</v>
       </c>
       <c r="F324" s="23"/>
       <c r="G324" s="24"/>
@@ -20186,21 +20182,21 @@
         <v>122</v>
       </c>
     </row>
-    <row r="325" spans="1:20" ht="282.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="325" spans="1:20" ht="282.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A325" s="20">
         <v>318</v>
       </c>
       <c r="B325" s="21" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="C325" s="21" t="s">
         <v>130</v>
       </c>
       <c r="D325" s="21" t="s">
-        <v>857</v>
+        <v>854</v>
       </c>
       <c r="E325" s="22" t="s">
-        <v>858</v>
+        <v>855</v>
       </c>
       <c r="F325" s="23"/>
       <c r="G325" s="24"/>
@@ -20220,21 +20216,21 @@
         <v>122</v>
       </c>
     </row>
-    <row r="326" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="326" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A326" s="20">
         <v>319</v>
       </c>
       <c r="B326" s="21" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="C326" s="21" t="s">
         <v>130</v>
       </c>
       <c r="D326" s="21" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
       <c r="E326" s="22" t="s">
-        <v>860</v>
+        <v>857</v>
       </c>
       <c r="F326" s="23"/>
       <c r="G326" s="24"/>
@@ -20254,21 +20250,21 @@
         <v>122</v>
       </c>
     </row>
-    <row r="327" spans="1:20" ht="242.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="327" spans="1:20" ht="242.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A327" s="20">
         <v>320</v>
       </c>
       <c r="B327" s="21" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="C327" s="21" t="s">
         <v>48</v>
       </c>
       <c r="D327" s="21" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
       <c r="E327" s="22" t="s">
-        <v>862</v>
+        <v>859</v>
       </c>
       <c r="F327" s="23"/>
       <c r="G327" s="24"/>
@@ -20288,21 +20284,21 @@
         <v>122</v>
       </c>
     </row>
-    <row r="328" spans="1:20" ht="242.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="328" spans="1:20" ht="242.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A328" s="20">
         <v>321</v>
       </c>
       <c r="B328" s="21" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="C328" s="21" t="s">
         <v>48</v>
       </c>
       <c r="D328" s="21" t="s">
-        <v>863</v>
+        <v>860</v>
       </c>
       <c r="E328" s="22" t="s">
-        <v>864</v>
+        <v>861</v>
       </c>
       <c r="F328" s="23"/>
       <c r="G328" s="24"/>
@@ -20322,21 +20318,21 @@
         <v>122</v>
       </c>
     </row>
-    <row r="329" spans="1:20" ht="315" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="329" spans="1:20" ht="315" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A329" s="20">
         <v>322</v>
       </c>
       <c r="B329" s="21" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="C329" s="21" t="s">
         <v>48</v>
       </c>
       <c r="D329" s="21" t="s">
-        <v>865</v>
+        <v>862</v>
       </c>
       <c r="E329" s="22" t="s">
-        <v>866</v>
+        <v>863</v>
       </c>
       <c r="F329" s="23"/>
       <c r="G329" s="24"/>
@@ -20356,21 +20352,21 @@
         <v>122</v>
       </c>
     </row>
-    <row r="330" spans="1:20" ht="259.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="330" spans="1:20" ht="259.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A330" s="20">
         <v>323</v>
       </c>
       <c r="B330" s="21" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="C330" s="21" t="s">
         <v>48</v>
       </c>
       <c r="D330" s="21" t="s">
-        <v>867</v>
+        <v>864</v>
       </c>
       <c r="E330" s="22" t="s">
-        <v>868</v>
+        <v>865</v>
       </c>
       <c r="F330" s="23"/>
       <c r="G330" s="24"/>
@@ -20390,21 +20386,21 @@
         <v>122</v>
       </c>
     </row>
-    <row r="331" spans="1:20" ht="242.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="331" spans="1:20" ht="242.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A331" s="20">
         <v>324</v>
       </c>
       <c r="B331" s="21" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="C331" s="21" t="s">
         <v>60</v>
       </c>
       <c r="D331" s="21" t="s">
-        <v>869</v>
+        <v>866</v>
       </c>
       <c r="E331" s="22" t="s">
-        <v>870</v>
+        <v>867</v>
       </c>
       <c r="F331" s="23"/>
       <c r="G331" s="24"/>
@@ -20424,21 +20420,21 @@
         <v>122</v>
       </c>
     </row>
-    <row r="332" spans="1:20" ht="242.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="332" spans="1:20" ht="242.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A332" s="20">
         <v>325</v>
       </c>
       <c r="B332" s="21" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="C332" s="21" t="s">
         <v>60</v>
       </c>
       <c r="D332" s="21" t="s">
-        <v>871</v>
+        <v>868</v>
       </c>
       <c r="E332" s="22" t="s">
-        <v>872</v>
+        <v>869</v>
       </c>
       <c r="F332" s="23"/>
       <c r="G332" s="24"/>
@@ -20458,21 +20454,21 @@
         <v>122</v>
       </c>
     </row>
-    <row r="333" spans="1:20" ht="315" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="333" spans="1:20" ht="315" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A333" s="20">
         <v>326</v>
       </c>
       <c r="B333" s="21" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="C333" s="21" t="s">
         <v>60</v>
       </c>
       <c r="D333" s="21" t="s">
-        <v>873</v>
+        <v>870</v>
       </c>
       <c r="E333" s="22" t="s">
-        <v>874</v>
+        <v>871</v>
       </c>
       <c r="F333" s="23"/>
       <c r="G333" s="24"/>
@@ -20492,21 +20488,21 @@
         <v>122</v>
       </c>
     </row>
-    <row r="334" spans="1:20" ht="259.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="334" spans="1:20" ht="259.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A334" s="20">
         <v>327</v>
       </c>
       <c r="B334" s="21" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="C334" s="21" t="s">
         <v>60</v>
       </c>
       <c r="D334" s="21" t="s">
-        <v>875</v>
+        <v>872</v>
       </c>
       <c r="E334" s="22" t="s">
-        <v>876</v>
+        <v>873</v>
       </c>
       <c r="F334" s="23"/>
       <c r="G334" s="24"/>
@@ -20526,21 +20522,21 @@
         <v>122</v>
       </c>
     </row>
-    <row r="335" spans="1:20" ht="242.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="335" spans="1:20" ht="242.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A335" s="20">
         <v>328</v>
       </c>
       <c r="B335" s="21" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="C335" s="21" t="s">
         <v>78</v>
       </c>
       <c r="D335" s="21" t="s">
-        <v>877</v>
+        <v>874</v>
       </c>
       <c r="E335" s="22" t="s">
-        <v>878</v>
+        <v>875</v>
       </c>
       <c r="F335" s="23"/>
       <c r="G335" s="24"/>
@@ -20560,21 +20556,21 @@
         <v>122</v>
       </c>
     </row>
-    <row r="336" spans="1:20" ht="242.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="336" spans="1:20" ht="242.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A336" s="20">
         <v>329</v>
       </c>
       <c r="B336" s="21" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="C336" s="21" t="s">
         <v>78</v>
       </c>
       <c r="D336" s="21" t="s">
-        <v>879</v>
+        <v>876</v>
       </c>
       <c r="E336" s="22" t="s">
-        <v>880</v>
+        <v>877</v>
       </c>
       <c r="F336" s="23"/>
       <c r="G336" s="24"/>
@@ -20594,21 +20590,21 @@
         <v>122</v>
       </c>
     </row>
-    <row r="337" spans="1:20" ht="315" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="337" spans="1:20" ht="315" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A337" s="20">
         <v>330</v>
       </c>
       <c r="B337" s="21" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="C337" s="21" t="s">
         <v>78</v>
       </c>
       <c r="D337" s="21" t="s">
-        <v>881</v>
+        <v>878</v>
       </c>
       <c r="E337" s="22" t="s">
-        <v>882</v>
+        <v>879</v>
       </c>
       <c r="F337" s="23"/>
       <c r="G337" s="24"/>
@@ -20628,21 +20624,21 @@
         <v>122</v>
       </c>
     </row>
-    <row r="338" spans="1:20" ht="259.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="338" spans="1:20" ht="259.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A338" s="20">
         <v>331</v>
       </c>
       <c r="B338" s="21" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="C338" s="21" t="s">
         <v>78</v>
       </c>
       <c r="D338" s="21" t="s">
-        <v>883</v>
+        <v>880</v>
       </c>
       <c r="E338" s="22" t="s">
-        <v>884</v>
+        <v>881</v>
       </c>
       <c r="F338" s="23"/>
       <c r="G338" s="24"/>
@@ -20662,21 +20658,21 @@
         <v>122</v>
       </c>
     </row>
-    <row r="339" spans="1:20" ht="242.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="339" spans="1:20" ht="242.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A339" s="20">
         <v>332</v>
       </c>
       <c r="B339" s="21" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="C339" s="21" t="s">
         <v>87</v>
       </c>
       <c r="D339" s="21" t="s">
-        <v>885</v>
+        <v>882</v>
       </c>
       <c r="E339" s="22" t="s">
-        <v>886</v>
+        <v>883</v>
       </c>
       <c r="F339" s="23"/>
       <c r="G339" s="24"/>
@@ -20696,21 +20692,21 @@
         <v>122</v>
       </c>
     </row>
-    <row r="340" spans="1:20" ht="242.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="340" spans="1:20" ht="242.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A340" s="20">
         <v>333</v>
       </c>
       <c r="B340" s="21" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="C340" s="21" t="s">
         <v>87</v>
       </c>
       <c r="D340" s="21" t="s">
-        <v>887</v>
+        <v>884</v>
       </c>
       <c r="E340" s="22" t="s">
-        <v>888</v>
+        <v>885</v>
       </c>
       <c r="F340" s="23"/>
       <c r="G340" s="24"/>
@@ -20730,21 +20726,21 @@
         <v>122</v>
       </c>
     </row>
-    <row r="341" spans="1:20" ht="315" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="341" spans="1:20" ht="315" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A341" s="20">
         <v>334</v>
       </c>
       <c r="B341" s="21" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="C341" s="21" t="s">
         <v>87</v>
       </c>
       <c r="D341" s="21" t="s">
-        <v>889</v>
+        <v>886</v>
       </c>
       <c r="E341" s="22" t="s">
-        <v>890</v>
+        <v>887</v>
       </c>
       <c r="F341" s="23"/>
       <c r="G341" s="24"/>
@@ -20764,21 +20760,21 @@
         <v>122</v>
       </c>
     </row>
-    <row r="342" spans="1:20" ht="259.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="342" spans="1:20" ht="259.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A342" s="20">
         <v>335</v>
       </c>
       <c r="B342" s="21" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="C342" s="21" t="s">
         <v>87</v>
       </c>
       <c r="D342" s="21" t="s">
-        <v>891</v>
+        <v>888</v>
       </c>
       <c r="E342" s="22" t="s">
-        <v>892</v>
+        <v>889</v>
       </c>
       <c r="F342" s="23"/>
       <c r="G342" s="24"/>
@@ -20798,21 +20794,21 @@
         <v>122</v>
       </c>
     </row>
-    <row r="343" spans="1:20" ht="242.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="343" spans="1:20" ht="242.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A343" s="20">
         <v>336</v>
       </c>
       <c r="B343" s="21" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="C343" s="21" t="s">
         <v>96</v>
       </c>
       <c r="D343" s="21" t="s">
-        <v>893</v>
+        <v>890</v>
       </c>
       <c r="E343" s="22" t="s">
-        <v>894</v>
+        <v>891</v>
       </c>
       <c r="F343" s="23"/>
       <c r="G343" s="24"/>
@@ -20832,21 +20828,21 @@
         <v>122</v>
       </c>
     </row>
-    <row r="344" spans="1:20" ht="242.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="344" spans="1:20" ht="242.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A344" s="20">
         <v>337</v>
       </c>
       <c r="B344" s="21" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="C344" s="21" t="s">
         <v>96</v>
       </c>
       <c r="D344" s="21" t="s">
-        <v>895</v>
+        <v>892</v>
       </c>
       <c r="E344" s="22" t="s">
-        <v>896</v>
+        <v>893</v>
       </c>
       <c r="F344" s="23"/>
       <c r="G344" s="24"/>
@@ -20866,21 +20862,21 @@
         <v>122</v>
       </c>
     </row>
-    <row r="345" spans="1:20" ht="315" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="345" spans="1:20" ht="315" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A345" s="20">
         <v>338</v>
       </c>
       <c r="B345" s="21" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="C345" s="21" t="s">
         <v>96</v>
       </c>
       <c r="D345" s="21" t="s">
-        <v>897</v>
+        <v>894</v>
       </c>
       <c r="E345" s="22" t="s">
-        <v>898</v>
+        <v>895</v>
       </c>
       <c r="F345" s="23"/>
       <c r="G345" s="24"/>
@@ -20900,21 +20896,21 @@
         <v>122</v>
       </c>
     </row>
-    <row r="346" spans="1:20" ht="259.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="346" spans="1:20" ht="259.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A346" s="20">
         <v>339</v>
       </c>
       <c r="B346" s="21" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="C346" s="21" t="s">
         <v>96</v>
       </c>
       <c r="D346" s="21" t="s">
-        <v>899</v>
+        <v>896</v>
       </c>
       <c r="E346" s="22" t="s">
-        <v>900</v>
+        <v>897</v>
       </c>
       <c r="F346" s="23"/>
       <c r="G346" s="24"/>
@@ -20934,21 +20930,21 @@
         <v>122</v>
       </c>
     </row>
-    <row r="347" spans="1:20" ht="242.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="347" spans="1:20" ht="242.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A347" s="20">
         <v>340</v>
       </c>
       <c r="B347" s="21" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="C347" s="21" t="s">
         <v>105</v>
       </c>
       <c r="D347" s="21" t="s">
-        <v>901</v>
+        <v>898</v>
       </c>
       <c r="E347" s="22" t="s">
-        <v>902</v>
+        <v>899</v>
       </c>
       <c r="F347" s="23"/>
       <c r="G347" s="24"/>
@@ -20968,21 +20964,21 @@
         <v>122</v>
       </c>
     </row>
-    <row r="348" spans="1:20" ht="242.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="348" spans="1:20" ht="242.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A348" s="20">
         <v>341</v>
       </c>
       <c r="B348" s="21" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="C348" s="21" t="s">
         <v>105</v>
       </c>
       <c r="D348" s="21" t="s">
-        <v>903</v>
+        <v>900</v>
       </c>
       <c r="E348" s="22" t="s">
-        <v>904</v>
+        <v>901</v>
       </c>
       <c r="F348" s="23"/>
       <c r="G348" s="24"/>
@@ -21002,21 +20998,21 @@
         <v>122</v>
       </c>
     </row>
-    <row r="349" spans="1:20" ht="315" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="349" spans="1:20" ht="315" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A349" s="20">
         <v>342</v>
       </c>
       <c r="B349" s="21" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="C349" s="21" t="s">
         <v>105</v>
       </c>
       <c r="D349" s="21" t="s">
-        <v>905</v>
+        <v>902</v>
       </c>
       <c r="E349" s="22" t="s">
-        <v>906</v>
+        <v>903</v>
       </c>
       <c r="F349" s="23"/>
       <c r="G349" s="24"/>
@@ -21036,21 +21032,21 @@
         <v>122</v>
       </c>
     </row>
-    <row r="350" spans="1:20" ht="259.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="350" spans="1:20" ht="259.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A350" s="20">
         <v>343</v>
       </c>
       <c r="B350" s="21" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="C350" s="21" t="s">
         <v>105</v>
       </c>
       <c r="D350" s="21" t="s">
-        <v>907</v>
+        <v>904</v>
       </c>
       <c r="E350" s="22" t="s">
-        <v>908</v>
+        <v>905</v>
       </c>
       <c r="F350" s="23"/>
       <c r="G350" s="24"/>
@@ -21070,21 +21066,21 @@
         <v>122</v>
       </c>
     </row>
-    <row r="351" spans="1:20" ht="242.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="351" spans="1:20" ht="242.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A351" s="20">
         <v>344</v>
       </c>
       <c r="B351" s="21" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="C351" s="21" t="s">
         <v>135</v>
       </c>
       <c r="D351" s="21" t="s">
-        <v>909</v>
+        <v>906</v>
       </c>
       <c r="E351" s="22" t="s">
-        <v>910</v>
+        <v>907</v>
       </c>
       <c r="F351" s="23"/>
       <c r="G351" s="24"/>
@@ -21104,21 +21100,21 @@
         <v>122</v>
       </c>
     </row>
-    <row r="352" spans="1:20" ht="242.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="352" spans="1:20" ht="242.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A352" s="20">
         <v>345</v>
       </c>
       <c r="B352" s="21" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="C352" s="21" t="s">
         <v>135</v>
       </c>
       <c r="D352" s="21" t="s">
-        <v>911</v>
+        <v>908</v>
       </c>
       <c r="E352" s="22" t="s">
-        <v>912</v>
+        <v>909</v>
       </c>
       <c r="F352" s="23"/>
       <c r="G352" s="24"/>
@@ -21138,21 +21134,21 @@
         <v>122</v>
       </c>
     </row>
-    <row r="353" spans="1:20" ht="315" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="353" spans="1:20" ht="315" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A353" s="20">
         <v>346</v>
       </c>
       <c r="B353" s="21" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="C353" s="21" t="s">
         <v>135</v>
       </c>
       <c r="D353" s="21" t="s">
-        <v>913</v>
+        <v>910</v>
       </c>
       <c r="E353" s="22" t="s">
-        <v>914</v>
+        <v>911</v>
       </c>
       <c r="F353" s="23"/>
       <c r="G353" s="24"/>
@@ -21172,21 +21168,21 @@
         <v>122</v>
       </c>
     </row>
-    <row r="354" spans="1:20" ht="259.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="354" spans="1:20" ht="259.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A354" s="20">
         <v>347</v>
       </c>
       <c r="B354" s="21" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="C354" s="21" t="s">
         <v>135</v>
       </c>
       <c r="D354" s="21" t="s">
-        <v>915</v>
+        <v>912</v>
       </c>
       <c r="E354" s="22" t="s">
-        <v>916</v>
+        <v>913</v>
       </c>
       <c r="F354" s="23"/>
       <c r="G354" s="24"/>
@@ -21206,21 +21202,21 @@
         <v>122</v>
       </c>
     </row>
-    <row r="355" spans="1:20" ht="242.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="355" spans="1:20" ht="242.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A355" s="20">
         <v>348</v>
       </c>
       <c r="B355" s="21" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="C355" s="21" t="s">
         <v>130</v>
       </c>
       <c r="D355" s="21" t="s">
-        <v>917</v>
+        <v>914</v>
       </c>
       <c r="E355" s="22" t="s">
-        <v>918</v>
+        <v>915</v>
       </c>
       <c r="F355" s="23"/>
       <c r="G355" s="24"/>
@@ -21240,21 +21236,21 @@
         <v>122</v>
       </c>
     </row>
-    <row r="356" spans="1:20" ht="242.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="356" spans="1:20" ht="242.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A356" s="20">
         <v>349</v>
       </c>
       <c r="B356" s="21" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="C356" s="21" t="s">
         <v>130</v>
       </c>
       <c r="D356" s="21" t="s">
-        <v>919</v>
+        <v>916</v>
       </c>
       <c r="E356" s="22" t="s">
-        <v>920</v>
+        <v>917</v>
       </c>
       <c r="F356" s="23"/>
       <c r="G356" s="24"/>
@@ -21274,21 +21270,21 @@
         <v>122</v>
       </c>
     </row>
-    <row r="357" spans="1:20" ht="315" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="357" spans="1:20" ht="315" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A357" s="20">
         <v>350</v>
       </c>
       <c r="B357" s="21" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="C357" s="21" t="s">
         <v>130</v>
       </c>
       <c r="D357" s="21" t="s">
-        <v>921</v>
+        <v>918</v>
       </c>
       <c r="E357" s="22" t="s">
-        <v>922</v>
+        <v>919</v>
       </c>
       <c r="F357" s="23"/>
       <c r="G357" s="24"/>
@@ -21308,21 +21304,21 @@
         <v>122</v>
       </c>
     </row>
-    <row r="358" spans="1:20" ht="259.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="358" spans="1:20" ht="259.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A358" s="20">
         <v>351</v>
       </c>
       <c r="B358" s="21" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="C358" s="21" t="s">
         <v>130</v>
       </c>
       <c r="D358" s="21" t="s">
-        <v>923</v>
+        <v>920</v>
       </c>
       <c r="E358" s="22" t="s">
-        <v>924</v>
+        <v>921</v>
       </c>
       <c r="F358" s="23"/>
       <c r="G358" s="24"/>
@@ -21342,21 +21338,21 @@
         <v>122</v>
       </c>
     </row>
-    <row r="359" spans="1:20" ht="249.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="359" spans="1:20" ht="249.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A359" s="20">
         <v>352</v>
       </c>
       <c r="B359" s="21" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="C359" s="21" t="s">
         <v>48</v>
       </c>
       <c r="D359" s="21" t="s">
-        <v>925</v>
+        <v>922</v>
       </c>
       <c r="E359" s="22" t="s">
-        <v>926</v>
+        <v>923</v>
       </c>
       <c r="F359" s="23"/>
       <c r="G359" s="24"/>
@@ -21376,21 +21372,21 @@
         <v>122</v>
       </c>
     </row>
-    <row r="360" spans="1:20" ht="249.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="360" spans="1:20" ht="249.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A360" s="20">
         <v>353</v>
       </c>
       <c r="B360" s="21" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="C360" s="21" t="s">
         <v>48</v>
       </c>
       <c r="D360" s="21" t="s">
-        <v>927</v>
+        <v>924</v>
       </c>
       <c r="E360" s="22" t="s">
-        <v>928</v>
+        <v>925</v>
       </c>
       <c r="F360" s="23"/>
       <c r="G360" s="24"/>
@@ -21410,21 +21406,21 @@
         <v>122</v>
       </c>
     </row>
-    <row r="361" spans="1:20" ht="249.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="361" spans="1:20" ht="249.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A361" s="20">
         <v>354</v>
       </c>
       <c r="B361" s="21" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="C361" s="21" t="s">
         <v>60</v>
       </c>
       <c r="D361" s="21" t="s">
-        <v>929</v>
+        <v>926</v>
       </c>
       <c r="E361" s="22" t="s">
-        <v>930</v>
+        <v>927</v>
       </c>
       <c r="F361" s="23"/>
       <c r="G361" s="24"/>
@@ -21444,21 +21440,21 @@
         <v>122</v>
       </c>
     </row>
-    <row r="362" spans="1:20" ht="249.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="362" spans="1:20" ht="249.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A362" s="20">
         <v>355</v>
       </c>
       <c r="B362" s="21" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="C362" s="21" t="s">
         <v>60</v>
       </c>
       <c r="D362" s="21" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="E362" s="22" t="s">
-        <v>932</v>
+        <v>929</v>
       </c>
       <c r="F362" s="23"/>
       <c r="G362" s="24"/>
@@ -21478,21 +21474,21 @@
         <v>122</v>
       </c>
     </row>
-    <row r="363" spans="1:20" ht="249.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="363" spans="1:20" ht="249.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A363" s="20">
         <v>356</v>
       </c>
       <c r="B363" s="21" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="C363" s="21" t="s">
         <v>78</v>
       </c>
       <c r="D363" s="21" t="s">
-        <v>933</v>
+        <v>930</v>
       </c>
       <c r="E363" s="22" t="s">
-        <v>934</v>
+        <v>931</v>
       </c>
       <c r="F363" s="23"/>
       <c r="G363" s="24"/>
@@ -21512,21 +21508,21 @@
         <v>122</v>
       </c>
     </row>
-    <row r="364" spans="1:20" ht="249.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="364" spans="1:20" ht="249.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A364" s="20">
         <v>357</v>
       </c>
       <c r="B364" s="21" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="C364" s="21" t="s">
         <v>78</v>
       </c>
       <c r="D364" s="21" t="s">
-        <v>935</v>
+        <v>932</v>
       </c>
       <c r="E364" s="22" t="s">
-        <v>936</v>
+        <v>933</v>
       </c>
       <c r="F364" s="23"/>
       <c r="G364" s="24"/>
@@ -21546,21 +21542,21 @@
         <v>122</v>
       </c>
     </row>
-    <row r="365" spans="1:20" ht="249.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="365" spans="1:20" ht="249.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A365" s="20">
         <v>358</v>
       </c>
       <c r="B365" s="21" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="C365" s="21" t="s">
         <v>87</v>
       </c>
       <c r="D365" s="21" t="s">
-        <v>937</v>
+        <v>934</v>
       </c>
       <c r="E365" s="22" t="s">
-        <v>938</v>
+        <v>935</v>
       </c>
       <c r="F365" s="23"/>
       <c r="G365" s="24"/>
@@ -21580,21 +21576,21 @@
         <v>122</v>
       </c>
     </row>
-    <row r="366" spans="1:20" ht="249.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="366" spans="1:20" ht="249.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A366" s="20">
         <v>359</v>
       </c>
       <c r="B366" s="21" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="C366" s="21" t="s">
         <v>87</v>
       </c>
       <c r="D366" s="21" t="s">
-        <v>939</v>
+        <v>936</v>
       </c>
       <c r="E366" s="22" t="s">
-        <v>940</v>
+        <v>937</v>
       </c>
       <c r="F366" s="23"/>
       <c r="G366" s="24"/>
@@ -21614,21 +21610,21 @@
         <v>122</v>
       </c>
     </row>
-    <row r="367" spans="1:20" ht="249.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="367" spans="1:20" ht="249.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A367" s="20">
         <v>360</v>
       </c>
       <c r="B367" s="21" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="C367" s="21" t="s">
         <v>96</v>
       </c>
       <c r="D367" s="21" t="s">
-        <v>941</v>
+        <v>938</v>
       </c>
       <c r="E367" s="22" t="s">
-        <v>942</v>
+        <v>939</v>
       </c>
       <c r="F367" s="23"/>
       <c r="G367" s="24"/>
@@ -21648,21 +21644,21 @@
         <v>122</v>
       </c>
     </row>
-    <row r="368" spans="1:20" ht="249.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="368" spans="1:20" ht="249.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A368" s="20">
         <v>361</v>
       </c>
       <c r="B368" s="21" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="C368" s="21" t="s">
         <v>96</v>
       </c>
       <c r="D368" s="21" t="s">
-        <v>943</v>
+        <v>940</v>
       </c>
       <c r="E368" s="22" t="s">
-        <v>944</v>
+        <v>941</v>
       </c>
       <c r="F368" s="23"/>
       <c r="G368" s="24"/>
@@ -21682,21 +21678,21 @@
         <v>122</v>
       </c>
     </row>
-    <row r="369" spans="1:20" ht="249.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="369" spans="1:20" ht="249.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A369" s="20">
         <v>362</v>
       </c>
       <c r="B369" s="21" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="C369" s="21" t="s">
         <v>105</v>
       </c>
       <c r="D369" s="21" t="s">
-        <v>945</v>
+        <v>942</v>
       </c>
       <c r="E369" s="22" t="s">
-        <v>946</v>
+        <v>943</v>
       </c>
       <c r="F369" s="23"/>
       <c r="G369" s="24"/>
@@ -21716,21 +21712,21 @@
         <v>122</v>
       </c>
     </row>
-    <row r="370" spans="1:20" ht="249.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="370" spans="1:20" ht="249.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A370" s="20">
         <v>363</v>
       </c>
       <c r="B370" s="21" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="C370" s="21" t="s">
         <v>105</v>
       </c>
       <c r="D370" s="21" t="s">
-        <v>947</v>
+        <v>944</v>
       </c>
       <c r="E370" s="22" t="s">
-        <v>948</v>
+        <v>945</v>
       </c>
       <c r="F370" s="23"/>
       <c r="G370" s="24"/>
@@ -21750,21 +21746,21 @@
         <v>122</v>
       </c>
     </row>
-    <row r="371" spans="1:20" ht="249.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="371" spans="1:20" ht="249.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A371" s="20">
         <v>364</v>
       </c>
       <c r="B371" s="21" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="C371" s="21" t="s">
         <v>135</v>
       </c>
       <c r="D371" s="21" t="s">
-        <v>949</v>
+        <v>946</v>
       </c>
       <c r="E371" s="22" t="s">
-        <v>950</v>
+        <v>947</v>
       </c>
       <c r="F371" s="23"/>
       <c r="G371" s="24"/>
@@ -21784,21 +21780,21 @@
         <v>122</v>
       </c>
     </row>
-    <row r="372" spans="1:20" ht="249.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="372" spans="1:20" ht="249.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A372" s="20">
         <v>365</v>
       </c>
       <c r="B372" s="21" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="C372" s="21" t="s">
         <v>135</v>
       </c>
       <c r="D372" s="21" t="s">
-        <v>951</v>
+        <v>948</v>
       </c>
       <c r="E372" s="22" t="s">
-        <v>952</v>
+        <v>949</v>
       </c>
       <c r="F372" s="23"/>
       <c r="G372" s="24"/>
@@ -21818,21 +21814,21 @@
         <v>122</v>
       </c>
     </row>
-    <row r="373" spans="1:20" ht="249.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="373" spans="1:20" ht="249.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A373" s="20">
         <v>366</v>
       </c>
       <c r="B373" s="21" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="C373" s="21" t="s">
         <v>130</v>
       </c>
       <c r="D373" s="21" t="s">
-        <v>953</v>
+        <v>950</v>
       </c>
       <c r="E373" s="22" t="s">
-        <v>954</v>
+        <v>951</v>
       </c>
       <c r="F373" s="23"/>
       <c r="G373" s="24"/>
@@ -21852,21 +21848,21 @@
         <v>122</v>
       </c>
     </row>
-    <row r="374" spans="1:20" ht="249.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="374" spans="1:20" ht="249.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A374" s="20">
         <v>367</v>
       </c>
       <c r="B374" s="21" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="C374" s="21" t="s">
         <v>130</v>
       </c>
       <c r="D374" s="21" t="s">
-        <v>955</v>
+        <v>952</v>
       </c>
       <c r="E374" s="22" t="s">
-        <v>956</v>
+        <v>953</v>
       </c>
       <c r="F374" s="23"/>
       <c r="G374" s="24"/>
@@ -21886,7 +21882,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="375" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="375" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A375" s="20">
         <v>368</v>
       </c>
@@ -21897,10 +21893,10 @@
         <v>48</v>
       </c>
       <c r="D375" s="21" t="s">
-        <v>957</v>
+        <v>954</v>
       </c>
       <c r="E375" s="22" t="s">
-        <v>958</v>
+        <v>955</v>
       </c>
       <c r="F375" s="23"/>
       <c r="G375" s="24"/>
@@ -21931,22 +21927,22 @@
         <v>60</v>
       </c>
       <c r="D376" s="21" t="s">
-        <v>959</v>
+        <v>956</v>
       </c>
       <c r="E376" s="22" t="s">
-        <v>960</v>
+        <v>957</v>
       </c>
       <c r="F376" s="23">
         <v>45314</v>
       </c>
       <c r="G376" s="29" t="s">
-        <v>961</v>
+        <v>958</v>
       </c>
       <c r="H376" s="29" t="s">
-        <v>962</v>
+        <v>959</v>
       </c>
       <c r="I376" s="29" t="s">
-        <v>963</v>
+        <v>960</v>
       </c>
       <c r="J376" s="25" t="s">
         <v>66</v>
@@ -21966,7 +21962,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="377" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="377" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A377" s="20">
         <v>370</v>
       </c>
@@ -21977,10 +21973,10 @@
         <v>78</v>
       </c>
       <c r="D377" s="21" t="s">
-        <v>964</v>
+        <v>961</v>
       </c>
       <c r="E377" s="22" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="F377" s="23"/>
       <c r="G377" s="24"/>
@@ -22000,7 +21996,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="378" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="378" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A378" s="20">
         <v>371</v>
       </c>
@@ -22011,10 +22007,10 @@
         <v>87</v>
       </c>
       <c r="D378" s="21" t="s">
-        <v>966</v>
+        <v>963</v>
       </c>
       <c r="E378" s="22" t="s">
-        <v>967</v>
+        <v>964</v>
       </c>
       <c r="F378" s="23"/>
       <c r="G378" s="24"/>
@@ -22034,7 +22030,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="379" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="379" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A379" s="20">
         <v>372</v>
       </c>
@@ -22045,10 +22041,10 @@
         <v>96</v>
       </c>
       <c r="D379" s="21" t="s">
-        <v>968</v>
+        <v>965</v>
       </c>
       <c r="E379" s="22" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
       <c r="F379" s="23"/>
       <c r="G379" s="24"/>
@@ -22079,22 +22075,22 @@
         <v>105</v>
       </c>
       <c r="D380" s="21" t="s">
-        <v>970</v>
+        <v>967</v>
       </c>
       <c r="E380" s="22" t="s">
-        <v>971</v>
+        <v>968</v>
       </c>
       <c r="F380" s="23">
         <v>45314</v>
       </c>
       <c r="G380" s="29" t="s">
-        <v>972</v>
+        <v>969</v>
       </c>
       <c r="H380" s="29" t="s">
-        <v>973</v>
+        <v>970</v>
       </c>
       <c r="I380" s="29" t="s">
-        <v>974</v>
+        <v>971</v>
       </c>
       <c r="J380" s="25" t="s">
         <v>66</v>
@@ -22125,22 +22121,22 @@
         <v>135</v>
       </c>
       <c r="D381" s="21" t="s">
-        <v>975</v>
+        <v>972</v>
       </c>
       <c r="E381" s="22" t="s">
-        <v>976</v>
+        <v>973</v>
       </c>
       <c r="F381" s="23">
         <v>45314</v>
       </c>
       <c r="G381" s="29" t="s">
-        <v>977</v>
+        <v>974</v>
       </c>
       <c r="H381" s="29" t="s">
-        <v>978</v>
+        <v>975</v>
       </c>
       <c r="I381" s="29" t="s">
-        <v>979</v>
+        <v>976</v>
       </c>
       <c r="J381" s="25" t="s">
         <v>66</v>
@@ -22160,7 +22156,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="382" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="382" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A382" s="20">
         <v>375</v>
       </c>
@@ -22171,10 +22167,10 @@
         <v>130</v>
       </c>
       <c r="D382" s="21" t="s">
-        <v>980</v>
+        <v>977</v>
       </c>
       <c r="E382" s="22" t="s">
-        <v>981</v>
+        <v>978</v>
       </c>
       <c r="F382" s="23"/>
       <c r="G382" s="24"/>
@@ -22194,7 +22190,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="383" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="383" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A383" s="20">
         <v>376</v>
       </c>
@@ -22205,10 +22201,10 @@
         <v>48</v>
       </c>
       <c r="D383" s="21" t="s">
-        <v>982</v>
+        <v>979</v>
       </c>
       <c r="E383" s="22" t="s">
-        <v>983</v>
+        <v>980</v>
       </c>
       <c r="F383" s="23"/>
       <c r="G383" s="24"/>
@@ -26880,20 +26876,6 @@
       <c r="T1000" s="13"/>
     </row>
   </sheetData>
-  <autoFilter ref="A9:T383" xr:uid="{00000000-0009-0000-0000-000002000000}">
-    <filterColumn colId="1">
-      <filters>
-        <filter val="VALIDAZIONE"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="2">
-      <filters>
-        <filter val="LDO"/>
-        <filter val="RSA"/>
-        <filter val="VPS"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
   <mergeCells count="7">
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="A2:B2"/>
@@ -26953,10 +26935,10 @@
         <v>28</v>
       </c>
       <c r="C1" s="33" t="s">
-        <v>984</v>
+        <v>981</v>
       </c>
       <c r="D1" s="33" t="s">
-        <v>985</v>
+        <v>982</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -26964,13 +26946,13 @@
         <v>48</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>986</v>
+        <v>983</v>
       </c>
       <c r="C2" s="34" t="s">
-        <v>987</v>
+        <v>984</v>
       </c>
       <c r="D2" s="34" t="s">
-        <v>988</v>
+        <v>985</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -26978,13 +26960,13 @@
         <v>60</v>
       </c>
       <c r="B3" s="11" t="s">
+        <v>983</v>
+      </c>
+      <c r="C3" s="34" t="s">
         <v>986</v>
       </c>
-      <c r="C3" s="34" t="s">
-        <v>989</v>
-      </c>
       <c r="D3" s="34" t="s">
-        <v>990</v>
+        <v>987</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -26992,13 +26974,13 @@
         <v>78</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>986</v>
+        <v>983</v>
       </c>
       <c r="C4" s="34" t="s">
-        <v>991</v>
+        <v>988</v>
       </c>
       <c r="D4" s="35" t="s">
-        <v>992</v>
+        <v>989</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -27006,13 +26988,13 @@
         <v>87</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>986</v>
+        <v>983</v>
       </c>
       <c r="C5" s="34" t="s">
-        <v>993</v>
+        <v>990</v>
       </c>
       <c r="D5" s="34" t="s">
-        <v>994</v>
+        <v>991</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -27020,13 +27002,13 @@
         <v>96</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>986</v>
+        <v>983</v>
       </c>
       <c r="C6" s="34" t="s">
-        <v>995</v>
+        <v>992</v>
       </c>
       <c r="D6" s="35" t="s">
-        <v>996</v>
+        <v>993</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="14.5" x14ac:dyDescent="0.35">
@@ -27034,13 +27016,13 @@
         <v>105</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>986</v>
+        <v>983</v>
       </c>
       <c r="C7" s="34" t="s">
-        <v>997</v>
+        <v>994</v>
       </c>
       <c r="D7" s="35" t="s">
-        <v>998</v>
+        <v>995</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="14.5" x14ac:dyDescent="0.35">
@@ -27048,13 +27030,13 @@
         <v>135</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>986</v>
+        <v>983</v>
       </c>
       <c r="C8" s="34" t="s">
-        <v>999</v>
+        <v>996</v>
       </c>
       <c r="D8" s="35" t="s">
-        <v>1000</v>
+        <v>997</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="14.5" x14ac:dyDescent="0.35">
@@ -27062,27 +27044,27 @@
         <v>130</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>986</v>
+        <v>983</v>
       </c>
       <c r="C9" s="34" t="s">
-        <v>1001</v>
+        <v>998</v>
       </c>
       <c r="D9" s="35" t="s">
-        <v>1002</v>
+        <v>999</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A10" s="11" t="s">
-        <v>1003</v>
+        <v>1000</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>986</v>
+        <v>983</v>
       </c>
       <c r="C10" s="35" t="s">
-        <v>1004</v>
+        <v>1001</v>
       </c>
       <c r="D10" s="34" t="s">
-        <v>1005</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -27090,13 +27072,13 @@
         <v>48</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>1006</v>
+        <v>1003</v>
       </c>
       <c r="C11" s="34">
         <v>192</v>
       </c>
       <c r="D11" s="34" t="s">
-        <v>1007</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -27104,13 +27086,13 @@
         <v>60</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>1006</v>
+        <v>1003</v>
       </c>
       <c r="C12" s="34">
         <v>208</v>
       </c>
       <c r="D12" s="34" t="s">
-        <v>1008</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -27118,13 +27100,13 @@
         <v>78</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>1006</v>
+        <v>1003</v>
       </c>
       <c r="C13" s="34">
         <v>224</v>
       </c>
       <c r="D13" s="35" t="s">
-        <v>1009</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -27132,13 +27114,13 @@
         <v>87</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>1006</v>
+        <v>1003</v>
       </c>
       <c r="C14" s="34">
         <v>240</v>
       </c>
       <c r="D14" s="34" t="s">
-        <v>1010</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -27146,13 +27128,13 @@
         <v>96</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>1006</v>
+        <v>1003</v>
       </c>
       <c r="C15" s="34">
         <v>256</v>
       </c>
       <c r="D15" s="35" t="s">
-        <v>1011</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -27160,13 +27142,13 @@
         <v>105</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>1006</v>
+        <v>1003</v>
       </c>
       <c r="C16" s="34">
         <v>272</v>
       </c>
       <c r="D16" s="35" t="s">
-        <v>1012</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -27174,13 +27156,13 @@
         <v>135</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>1006</v>
+        <v>1003</v>
       </c>
       <c r="C17" s="34">
         <v>288</v>
       </c>
       <c r="D17" s="35" t="s">
-        <v>1013</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -27188,13 +27170,13 @@
         <v>130</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>1006</v>
+        <v>1003</v>
       </c>
       <c r="C18" s="34">
         <v>304</v>
       </c>
       <c r="D18" s="35" t="s">
-        <v>1014</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -27202,13 +27184,13 @@
         <v>48</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>1015</v>
+        <v>1012</v>
       </c>
       <c r="C19" s="34">
         <v>193</v>
       </c>
       <c r="D19" s="34" t="s">
-        <v>1016</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -27216,13 +27198,13 @@
         <v>60</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>1015</v>
+        <v>1012</v>
       </c>
       <c r="C20" s="34">
         <v>209</v>
       </c>
       <c r="D20" s="34" t="s">
-        <v>1017</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -27230,13 +27212,13 @@
         <v>78</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>1015</v>
+        <v>1012</v>
       </c>
       <c r="C21" s="34">
         <v>225</v>
       </c>
       <c r="D21" s="35" t="s">
-        <v>1018</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -27244,13 +27226,13 @@
         <v>87</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>1015</v>
+        <v>1012</v>
       </c>
       <c r="C22" s="34">
         <v>241</v>
       </c>
       <c r="D22" s="34" t="s">
-        <v>1019</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -27258,13 +27240,13 @@
         <v>96</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>1015</v>
+        <v>1012</v>
       </c>
       <c r="C23" s="34">
         <v>257</v>
       </c>
       <c r="D23" s="35" t="s">
-        <v>1020</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -27272,13 +27254,13 @@
         <v>105</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>1015</v>
+        <v>1012</v>
       </c>
       <c r="C24" s="34">
         <v>273</v>
       </c>
       <c r="D24" s="35" t="s">
-        <v>1021</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -27286,13 +27268,13 @@
         <v>135</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>1015</v>
+        <v>1012</v>
       </c>
       <c r="C25" s="34">
         <v>289</v>
       </c>
       <c r="D25" s="35" t="s">
-        <v>1022</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -27300,13 +27282,13 @@
         <v>130</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>1015</v>
+        <v>1012</v>
       </c>
       <c r="C26" s="34">
         <v>305</v>
       </c>
       <c r="D26" s="35" t="s">
-        <v>1023</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -27314,13 +27296,13 @@
         <v>48</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>1024</v>
+        <v>1021</v>
       </c>
       <c r="C27" s="34">
         <v>194</v>
       </c>
       <c r="D27" s="34" t="s">
-        <v>1025</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -27328,13 +27310,13 @@
         <v>60</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>1024</v>
+        <v>1021</v>
       </c>
       <c r="C28" s="34">
         <v>210</v>
       </c>
       <c r="D28" s="34" t="s">
-        <v>1026</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -27342,13 +27324,13 @@
         <v>78</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>1024</v>
+        <v>1021</v>
       </c>
       <c r="C29" s="34">
         <v>226</v>
       </c>
       <c r="D29" s="36" t="s">
-        <v>1027</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -27356,13 +27338,13 @@
         <v>87</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>1024</v>
+        <v>1021</v>
       </c>
       <c r="C30" s="34">
         <v>242</v>
       </c>
       <c r="D30" s="34" t="s">
-        <v>1028</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -27370,13 +27352,13 @@
         <v>96</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>1024</v>
+        <v>1021</v>
       </c>
       <c r="C31" s="34">
         <v>258</v>
       </c>
       <c r="D31" s="35" t="s">
-        <v>1029</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -27384,13 +27366,13 @@
         <v>105</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>1024</v>
+        <v>1021</v>
       </c>
       <c r="C32" s="34">
         <v>274</v>
       </c>
       <c r="D32" s="35" t="s">
-        <v>1030</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -27398,13 +27380,13 @@
         <v>135</v>
       </c>
       <c r="B33" s="11" t="s">
-        <v>1024</v>
+        <v>1021</v>
       </c>
       <c r="C33" s="34">
         <v>290</v>
       </c>
       <c r="D33" s="35" t="s">
-        <v>1031</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -27412,13 +27394,13 @@
         <v>130</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>1024</v>
+        <v>1021</v>
       </c>
       <c r="C34" s="34">
         <v>306</v>
       </c>
       <c r="D34" s="35" t="s">
-        <v>1032</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -27426,7 +27408,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="11" t="s">
-        <v>1033</v>
+        <v>1030</v>
       </c>
       <c r="C35" s="34">
         <v>195</v>
@@ -27440,7 +27422,7 @@
         <v>60</v>
       </c>
       <c r="B36" s="11" t="s">
-        <v>1033</v>
+        <v>1030</v>
       </c>
       <c r="C36" s="34">
         <v>211</v>
@@ -27454,7 +27436,7 @@
         <v>78</v>
       </c>
       <c r="B37" s="11" t="s">
-        <v>1033</v>
+        <v>1030</v>
       </c>
       <c r="C37" s="34">
         <v>227</v>
@@ -27468,7 +27450,7 @@
         <v>87</v>
       </c>
       <c r="B38" s="11" t="s">
-        <v>1033</v>
+        <v>1030</v>
       </c>
       <c r="C38" s="34">
         <v>243</v>
@@ -27482,7 +27464,7 @@
         <v>96</v>
       </c>
       <c r="B39" s="11" t="s">
-        <v>1033</v>
+        <v>1030</v>
       </c>
       <c r="C39" s="34">
         <v>259</v>
@@ -27496,7 +27478,7 @@
         <v>105</v>
       </c>
       <c r="B40" s="11" t="s">
-        <v>1033</v>
+        <v>1030</v>
       </c>
       <c r="C40" s="34">
         <v>275</v>
@@ -27510,7 +27492,7 @@
         <v>135</v>
       </c>
       <c r="B41" s="11" t="s">
-        <v>1033</v>
+        <v>1030</v>
       </c>
       <c r="C41" s="34">
         <v>291</v>
@@ -27524,7 +27506,7 @@
         <v>130</v>
       </c>
       <c r="B42" s="11" t="s">
-        <v>1033</v>
+        <v>1030</v>
       </c>
       <c r="C42" s="34">
         <v>307</v>
@@ -27538,7 +27520,7 @@
         <v>48</v>
       </c>
       <c r="B43" s="11" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
       <c r="C43" s="34">
         <v>196</v>
@@ -27552,7 +27534,7 @@
         <v>60</v>
       </c>
       <c r="B44" s="11" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
       <c r="C44" s="34">
         <v>212</v>
@@ -27566,7 +27548,7 @@
         <v>78</v>
       </c>
       <c r="B45" s="11" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
       <c r="C45" s="34">
         <v>228</v>
@@ -27580,7 +27562,7 @@
         <v>87</v>
       </c>
       <c r="B46" s="11" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
       <c r="C46" s="34">
         <v>244</v>
@@ -27594,7 +27576,7 @@
         <v>96</v>
       </c>
       <c r="B47" s="11" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
       <c r="C47" s="34">
         <v>260</v>
@@ -27608,7 +27590,7 @@
         <v>105</v>
       </c>
       <c r="B48" s="11" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
       <c r="C48" s="34">
         <v>276</v>
@@ -27622,7 +27604,7 @@
         <v>135</v>
       </c>
       <c r="B49" s="11" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
       <c r="C49" s="34">
         <v>292</v>
@@ -27636,7 +27618,7 @@
         <v>130</v>
       </c>
       <c r="B50" s="11" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
       <c r="C50" s="34">
         <v>308</v>
@@ -28632,7 +28614,7 @@
     </row>
     <row r="3" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
-        <v>1035</v>
+        <v>1032</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>70</v>
